--- a/data/expected_death_inlam_2020.xlsx
+++ b/data/expected_death_inlam_2020.xlsx
@@ -824,13 +824,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>40.9513375815777</v>
+        <v>40.5756201007092</v>
       </c>
       <c r="D2" t="n">
-        <v>34.8519293596705</v>
+        <v>34.3700052440813</v>
       </c>
       <c r="E2" t="n">
-        <v>47.7012716735955</v>
+        <v>48.0708690210631</v>
       </c>
       <c r="F2" t="n">
         <v>2018</v>
@@ -862,13 +862,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>103.323023115667</v>
+        <v>103.195384145486</v>
       </c>
       <c r="D3" t="n">
-        <v>91.3085626929775</v>
+        <v>92.3905524775721</v>
       </c>
       <c r="E3" t="n">
-        <v>115.357218219065</v>
+        <v>115.594181604195</v>
       </c>
       <c r="F3" t="n">
         <v>2018</v>
@@ -900,13 +900,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>110.199068733833</v>
+        <v>110.398242772118</v>
       </c>
       <c r="D4" t="n">
-        <v>98.6692645725084</v>
+        <v>99.431158382044</v>
       </c>
       <c r="E4" t="n">
-        <v>122.702219558068</v>
+        <v>121.961603035203</v>
       </c>
       <c r="F4" t="n">
         <v>2018</v>
@@ -938,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1516.67225940103</v>
+        <v>1515.3922074016</v>
       </c>
       <c r="D5" t="n">
-        <v>1423.24020344664</v>
+        <v>1433.02399834308</v>
       </c>
       <c r="E5" t="n">
-        <v>1608.92523416573</v>
+        <v>1618.28205011817</v>
       </c>
       <c r="F5" t="n">
         <v>2018</v>
@@ -976,13 +976,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>260.669205476054</v>
+        <v>261.039401298061</v>
       </c>
       <c r="D6" t="n">
-        <v>239.084853219259</v>
+        <v>240.744628135496</v>
       </c>
       <c r="E6" t="n">
-        <v>284.437804716763</v>
+        <v>284.001384495459</v>
       </c>
       <c r="F6" t="n">
         <v>2018</v>
@@ -1014,13 +1014,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>903.155314072008</v>
+        <v>904.457166327123</v>
       </c>
       <c r="D7" t="n">
-        <v>844.960613673588</v>
+        <v>853.316543415232</v>
       </c>
       <c r="E7" t="n">
-        <v>960.704376599743</v>
+        <v>964.068075017362</v>
       </c>
       <c r="F7" t="n">
         <v>2018</v>
@@ -1052,13 +1052,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>483.527397879058</v>
+        <v>483.812928182083</v>
       </c>
       <c r="D8" t="n">
-        <v>447.82134253802</v>
+        <v>453.401192413438</v>
       </c>
       <c r="E8" t="n">
-        <v>520.520980364984</v>
+        <v>515.18415202021</v>
       </c>
       <c r="F8" t="n">
         <v>2018</v>
@@ -1090,13 +1090,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>70.7564362303096</v>
+        <v>70.8314675387669</v>
       </c>
       <c r="D9" t="n">
-        <v>63.5878029466231</v>
+        <v>63.2251590906097</v>
       </c>
       <c r="E9" t="n">
-        <v>79.6680126627646</v>
+        <v>79.9471540782813</v>
       </c>
       <c r="F9" t="n">
         <v>2018</v>
@@ -1128,13 +1128,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>141.815186585491</v>
+        <v>142.12758650333</v>
       </c>
       <c r="D10" t="n">
-        <v>127.545115911097</v>
+        <v>128.960735919957</v>
       </c>
       <c r="E10" t="n">
-        <v>156.546327340821</v>
+        <v>158.121077717271</v>
       </c>
       <c r="F10" t="n">
         <v>2018</v>
@@ -1166,13 +1166,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>108.086958371263</v>
+        <v>108.034577406378</v>
       </c>
       <c r="D11" t="n">
-        <v>97.0836964928418</v>
+        <v>96.8274752841797</v>
       </c>
       <c r="E11" t="n">
-        <v>121.796849781203</v>
+        <v>120.904553637826</v>
       </c>
       <c r="F11" t="n">
         <v>2018</v>
@@ -1204,13 +1204,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>188.663040176829</v>
+        <v>188.356015859407</v>
       </c>
       <c r="D12" t="n">
-        <v>170.475675942907</v>
+        <v>172.791145358366</v>
       </c>
       <c r="E12" t="n">
-        <v>207.939856217548</v>
+        <v>207.399710262112</v>
       </c>
       <c r="F12" t="n">
         <v>2018</v>
@@ -1242,13 +1242,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>239.324178123094</v>
+        <v>239.927779822556</v>
       </c>
       <c r="D13" t="n">
-        <v>218.951581020837</v>
+        <v>220.723549170698</v>
       </c>
       <c r="E13" t="n">
-        <v>260.516830896755</v>
+        <v>261.022476870258</v>
       </c>
       <c r="F13" t="n">
         <v>2018</v>
@@ -1280,13 +1280,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>86.9093731847706</v>
+        <v>87.2392545691928</v>
       </c>
       <c r="D14" t="n">
-        <v>76.722769983704</v>
+        <v>77.0557093819525</v>
       </c>
       <c r="E14" t="n">
-        <v>98.2689411857509</v>
+        <v>98.9669611678349</v>
       </c>
       <c r="F14" t="n">
         <v>2018</v>
@@ -1318,13 +1318,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>28.1994205683446</v>
+        <v>28.2774308056593</v>
       </c>
       <c r="D15" t="n">
-        <v>23.8072012320868</v>
+        <v>24.2055210152744</v>
       </c>
       <c r="E15" t="n">
-        <v>32.8920394105764</v>
+        <v>32.7851040137456</v>
       </c>
       <c r="F15" t="n">
         <v>2018</v>
@@ -1356,13 +1356,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>171.970446833911</v>
+        <v>171.068767896058</v>
       </c>
       <c r="D16" t="n">
-        <v>157.152954472387</v>
+        <v>156.243078961476</v>
       </c>
       <c r="E16" t="n">
-        <v>188.52031417407</v>
+        <v>187.447608264903</v>
       </c>
       <c r="F16" t="n">
         <v>2018</v>
@@ -1394,13 +1394,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>170.15724970802</v>
+        <v>170.274805122436</v>
       </c>
       <c r="D17" t="n">
-        <v>153.087476690296</v>
+        <v>155.834710046155</v>
       </c>
       <c r="E17" t="n">
-        <v>187.094472258826</v>
+        <v>186.462696827693</v>
       </c>
       <c r="F17" t="n">
         <v>2018</v>
@@ -1432,13 +1432,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>168.321485499977</v>
+        <v>168.449711542271</v>
       </c>
       <c r="D18" t="n">
-        <v>153.15253849203</v>
+        <v>153.120212969994</v>
       </c>
       <c r="E18" t="n">
-        <v>184.57448043906</v>
+        <v>186.438052677631</v>
       </c>
       <c r="F18" t="n">
         <v>2018</v>
@@ -1470,13 +1470,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>38.4469743750597</v>
+        <v>38.4876888118059</v>
       </c>
       <c r="D19" t="n">
-        <v>32.8035977573201</v>
+        <v>33.0228878702177</v>
       </c>
       <c r="E19" t="n">
-        <v>45.1537741740534</v>
+        <v>44.4325165710646</v>
       </c>
       <c r="F19" t="n">
         <v>2018</v>
@@ -1508,13 +1508,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>250.683867063106</v>
+        <v>251.404608689428</v>
       </c>
       <c r="D20" t="n">
-        <v>230.836946411457</v>
+        <v>230.712330195645</v>
       </c>
       <c r="E20" t="n">
-        <v>270.652800005586</v>
+        <v>271.568769046149</v>
       </c>
       <c r="F20" t="n">
         <v>2018</v>
@@ -1546,13 +1546,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>135.495261564771</v>
+        <v>136.005687199352</v>
       </c>
       <c r="D21" t="n">
-        <v>121.989039569164</v>
+        <v>123.942930823126</v>
       </c>
       <c r="E21" t="n">
-        <v>150.124460395196</v>
+        <v>150.581377655799</v>
       </c>
       <c r="F21" t="n">
         <v>2018</v>
@@ -1584,13 +1584,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>132.205292264133</v>
+        <v>131.710640664686</v>
       </c>
       <c r="D22" t="n">
-        <v>118.630012443945</v>
+        <v>119.845043762904</v>
       </c>
       <c r="E22" t="n">
-        <v>145.551083134112</v>
+        <v>145.865367764832</v>
       </c>
       <c r="F22" t="n">
         <v>2018</v>
@@ -1622,13 +1622,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>423.143893170721</v>
+        <v>424.097206858387</v>
       </c>
       <c r="D23" t="n">
-        <v>392.25782709602</v>
+        <v>393.5445331367</v>
       </c>
       <c r="E23" t="n">
-        <v>454.556396676146</v>
+        <v>459.350898026251</v>
       </c>
       <c r="F23" t="n">
         <v>2018</v>
@@ -1660,13 +1660,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>256.217273552914</v>
+        <v>255.789803500168</v>
       </c>
       <c r="D24" t="n">
-        <v>235.515080099899</v>
+        <v>234.20089501642</v>
       </c>
       <c r="E24" t="n">
-        <v>278.356989286364</v>
+        <v>279.680976218031</v>
       </c>
       <c r="F24" t="n">
         <v>2018</v>
@@ -1698,13 +1698,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>235.704082665377</v>
+        <v>236.095680853437</v>
       </c>
       <c r="D25" t="n">
-        <v>214.807269112897</v>
+        <v>217.262719466421</v>
       </c>
       <c r="E25" t="n">
-        <v>257.324470487133</v>
+        <v>257.605650859011</v>
       </c>
       <c r="F25" t="n">
         <v>2018</v>
@@ -1736,13 +1736,13 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>268.57748794114</v>
+        <v>268.317396833092</v>
       </c>
       <c r="D26" t="n">
-        <v>246.764590741043</v>
+        <v>247.634995666474</v>
       </c>
       <c r="E26" t="n">
-        <v>291.00720268666</v>
+        <v>292.43830299931</v>
       </c>
       <c r="F26" t="n">
         <v>2018</v>
@@ -1774,13 +1774,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>172.953951960657</v>
+        <v>173.782814711214</v>
       </c>
       <c r="D27" t="n">
-        <v>157.01447137027</v>
+        <v>158.309164860838</v>
       </c>
       <c r="E27" t="n">
-        <v>191.145864409675</v>
+        <v>189.781189089456</v>
       </c>
       <c r="F27" t="n">
         <v>2018</v>
@@ -1812,13 +1812,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>54.2529454172403</v>
+        <v>54.2335303274379</v>
       </c>
       <c r="D28" t="n">
-        <v>47.1549802024544</v>
+        <v>47.5327095500496</v>
       </c>
       <c r="E28" t="n">
-        <v>61.7994467543198</v>
+        <v>61.9240884075143</v>
       </c>
       <c r="F28" t="n">
         <v>2018</v>
@@ -1850,13 +1850,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>113.699186262046</v>
+        <v>114.032585622063</v>
       </c>
       <c r="D29" t="n">
-        <v>101.781989071904</v>
+        <v>102.301394937497</v>
       </c>
       <c r="E29" t="n">
-        <v>126.872397671987</v>
+        <v>126.068543061435</v>
       </c>
       <c r="F29" t="n">
         <v>2018</v>
@@ -1888,13 +1888,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>62.6519403763817</v>
+        <v>62.1570671743837</v>
       </c>
       <c r="D30" t="n">
-        <v>54.6571078457476</v>
+        <v>54.6125914583227</v>
       </c>
       <c r="E30" t="n">
-        <v>72.0467267890942</v>
+        <v>70.7266245329832</v>
       </c>
       <c r="F30" t="n">
         <v>2018</v>
@@ -1926,13 +1926,13 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>462.669009424526</v>
+        <v>462.026901975329</v>
       </c>
       <c r="D31" t="n">
-        <v>429.574246780973</v>
+        <v>429.93794691476</v>
       </c>
       <c r="E31" t="n">
-        <v>495.405053943072</v>
+        <v>496.199457987632</v>
       </c>
       <c r="F31" t="n">
         <v>2018</v>
@@ -1964,13 +1964,13 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>199.849233730798</v>
+        <v>199.99996971846</v>
       </c>
       <c r="D32" t="n">
-        <v>181.251811659694</v>
+        <v>182.655703305854</v>
       </c>
       <c r="E32" t="n">
-        <v>219.75696801855</v>
+        <v>218.505000247701</v>
       </c>
       <c r="F32" t="n">
         <v>2018</v>
@@ -2002,13 +2002,13 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>110.561844774534</v>
+        <v>110.906563203214</v>
       </c>
       <c r="D33" t="n">
-        <v>99.1172858723606</v>
+        <v>97.868106676883</v>
       </c>
       <c r="E33" t="n">
-        <v>123.351954405682</v>
+        <v>123.604851610425</v>
       </c>
       <c r="F33" t="n">
         <v>2018</v>
@@ -2040,13 +2040,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>305.701084611947</v>
+        <v>306.123410777677</v>
       </c>
       <c r="D34" t="n">
-        <v>282.243827472123</v>
+        <v>283.801911444841</v>
       </c>
       <c r="E34" t="n">
-        <v>331.90016559826</v>
+        <v>331.372580731457</v>
       </c>
       <c r="F34" t="n">
         <v>2018</v>
@@ -2078,13 +2078,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>61.6795362434024</v>
+        <v>61.6323046160631</v>
       </c>
       <c r="D35" t="n">
-        <v>53.4849086125753</v>
+        <v>53.4132338365736</v>
       </c>
       <c r="E35" t="n">
-        <v>70.233728339933</v>
+        <v>70.090195748386</v>
       </c>
       <c r="F35" t="n">
         <v>2018</v>
@@ -2116,13 +2116,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>278.475051323709</v>
+        <v>278.253787777616</v>
       </c>
       <c r="D36" t="n">
-        <v>256.433549441455</v>
+        <v>258.421647166973</v>
       </c>
       <c r="E36" t="n">
-        <v>304.460672724064</v>
+        <v>303.113217636429</v>
       </c>
       <c r="F36" t="n">
         <v>2018</v>
@@ -2154,13 +2154,13 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>60.7594865846506</v>
+        <v>60.551774750927</v>
       </c>
       <c r="D37" t="n">
-        <v>52.9056121016295</v>
+        <v>52.6777839651853</v>
       </c>
       <c r="E37" t="n">
-        <v>68.8130695254839</v>
+        <v>69.1863971582186</v>
       </c>
       <c r="F37" t="n">
         <v>2018</v>
@@ -2192,13 +2192,13 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>447.36156444778</v>
+        <v>447.063525872309</v>
       </c>
       <c r="D38" t="n">
-        <v>413.736690147387</v>
+        <v>416.624968807828</v>
       </c>
       <c r="E38" t="n">
-        <v>482.483438118509</v>
+        <v>481.437879082491</v>
       </c>
       <c r="F38" t="n">
         <v>2018</v>
@@ -2230,13 +2230,13 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>235.152101987478</v>
+        <v>234.174160041855</v>
       </c>
       <c r="D39" t="n">
-        <v>214.069546022842</v>
+        <v>215.936520452183</v>
       </c>
       <c r="E39" t="n">
-        <v>255.136293357356</v>
+        <v>256.453505223211</v>
       </c>
       <c r="F39" t="n">
         <v>2018</v>
@@ -2268,13 +2268,13 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>262.159770371187</v>
+        <v>261.485823774222</v>
       </c>
       <c r="D40" t="n">
-        <v>241.2726690567</v>
+        <v>241.232999779172</v>
       </c>
       <c r="E40" t="n">
-        <v>286.672471565836</v>
+        <v>284.737745363354</v>
       </c>
       <c r="F40" t="n">
         <v>2018</v>
@@ -2306,13 +2306,13 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>344.589137412764</v>
+        <v>344.671373998481</v>
       </c>
       <c r="D41" t="n">
-        <v>318.857328213633</v>
+        <v>319.565117489022</v>
       </c>
       <c r="E41" t="n">
-        <v>372.722185002362</v>
+        <v>372.680293334291</v>
       </c>
       <c r="F41" t="n">
         <v>2018</v>
@@ -2344,13 +2344,13 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>43.9130333627957</v>
+        <v>43.9365972704615</v>
       </c>
       <c r="D42" t="n">
-        <v>37.5165496931948</v>
+        <v>38.0164787199498</v>
       </c>
       <c r="E42" t="n">
-        <v>50.7295521923568</v>
+        <v>51.0405491411795</v>
       </c>
       <c r="F42" t="n">
         <v>2018</v>
@@ -2382,13 +2382,13 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>23.4807729610129</v>
+        <v>23.4005916642436</v>
       </c>
       <c r="D43" t="n">
-        <v>19.9738076175827</v>
+        <v>19.6508046402177</v>
       </c>
       <c r="E43" t="n">
-        <v>27.3109380390664</v>
+        <v>27.64194216306</v>
       </c>
       <c r="F43" t="n">
         <v>2018</v>
@@ -2420,13 +2420,13 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>211.189113329735</v>
+        <v>210.74282628096</v>
       </c>
       <c r="D44" t="n">
-        <v>193.236601255109</v>
+        <v>193.579337946709</v>
       </c>
       <c r="E44" t="n">
-        <v>229.291352281144</v>
+        <v>229.890644860557</v>
       </c>
       <c r="F44" t="n">
         <v>2018</v>
@@ -2458,13 +2458,13 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>58.5865795459851</v>
+        <v>58.4312862725622</v>
       </c>
       <c r="D45" t="n">
-        <v>50.2446895484093</v>
+        <v>50.8990347329029</v>
       </c>
       <c r="E45" t="n">
-        <v>66.9351678415136</v>
+        <v>67.1275454850398</v>
       </c>
       <c r="F45" t="n">
         <v>2018</v>
@@ -2496,13 +2496,13 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>161.04416063468</v>
+        <v>160.836698278893</v>
       </c>
       <c r="D46" t="n">
-        <v>144.499900225322</v>
+        <v>146.908451994055</v>
       </c>
       <c r="E46" t="n">
-        <v>176.294219220123</v>
+        <v>176.695403803268</v>
       </c>
       <c r="F46" t="n">
         <v>2018</v>
@@ -2534,13 +2534,13 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>112.523427053263</v>
+        <v>112.247242612725</v>
       </c>
       <c r="D47" t="n">
-        <v>100.131175293052</v>
+        <v>100.070108856174</v>
       </c>
       <c r="E47" t="n">
-        <v>125.644743264489</v>
+        <v>124.263683493131</v>
       </c>
       <c r="F47" t="n">
         <v>2018</v>
@@ -2572,13 +2572,13 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>220.090643853145</v>
+        <v>220.438164036113</v>
       </c>
       <c r="D48" t="n">
-        <v>199.829862479871</v>
+        <v>201.234181416471</v>
       </c>
       <c r="E48" t="n">
-        <v>240.919156788808</v>
+        <v>240.581589378804</v>
       </c>
       <c r="F48" t="n">
         <v>2018</v>
@@ -2610,13 +2610,13 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>490.28179340828</v>
+        <v>488.969650704442</v>
       </c>
       <c r="D49" t="n">
-        <v>453.398072787774</v>
+        <v>458.727086404601</v>
       </c>
       <c r="E49" t="n">
-        <v>526.824481502141</v>
+        <v>523.720311393023</v>
       </c>
       <c r="F49" t="n">
         <v>2018</v>
@@ -2648,13 +2648,13 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>72.2197187100912</v>
+        <v>72.1928580061149</v>
       </c>
       <c r="D50" t="n">
-        <v>63.5781907716032</v>
+        <v>63.1692511626284</v>
       </c>
       <c r="E50" t="n">
-        <v>82.0686133844126</v>
+        <v>81.1162231734318</v>
       </c>
       <c r="F50" t="n">
         <v>2018</v>
@@ -2686,13 +2686,13 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>209.022994393211</v>
+        <v>208.34200183316</v>
       </c>
       <c r="D51" t="n">
-        <v>189.572628653174</v>
+        <v>191.35415895287</v>
       </c>
       <c r="E51" t="n">
-        <v>227.920159129154</v>
+        <v>227.558410786651</v>
       </c>
       <c r="F51" t="n">
         <v>2018</v>
@@ -2724,13 +2724,13 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>113.032332279014</v>
+        <v>113.263206591854</v>
       </c>
       <c r="D52" t="n">
-        <v>101.701192279964</v>
+        <v>101.783231423946</v>
       </c>
       <c r="E52" t="n">
-        <v>126.046541748912</v>
+        <v>126.389658543649</v>
       </c>
       <c r="F52" t="n">
         <v>2018</v>
@@ -2762,13 +2762,13 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>31.9701991147971</v>
+        <v>31.8808889850446</v>
       </c>
       <c r="D53" t="n">
-        <v>26.800466558383</v>
+        <v>26.9874641870302</v>
       </c>
       <c r="E53" t="n">
-        <v>38.0455332439238</v>
+        <v>38.0812804629376</v>
       </c>
       <c r="F53" t="n">
         <v>2018</v>
@@ -2800,13 +2800,13 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>21.844631287266</v>
+        <v>21.8710998844138</v>
       </c>
       <c r="D54" t="n">
-        <v>17.2253157468659</v>
+        <v>17.3640593774471</v>
       </c>
       <c r="E54" t="n">
-        <v>27.0369733309538</v>
+        <v>27.1727671643068</v>
       </c>
       <c r="F54" t="n">
         <v>2018</v>
@@ -2838,13 +2838,13 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>200.208096457357</v>
+        <v>200.074912888653</v>
       </c>
       <c r="D55" t="n">
-        <v>182.143780075726</v>
+        <v>182.887699224557</v>
       </c>
       <c r="E55" t="n">
-        <v>217.458590309559</v>
+        <v>219.122133974092</v>
       </c>
       <c r="F55" t="n">
         <v>2018</v>
@@ -2876,13 +2876,13 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>293.655469407264</v>
+        <v>294.326655465112</v>
       </c>
       <c r="D56" t="n">
-        <v>270.171817715398</v>
+        <v>272.629676223254</v>
       </c>
       <c r="E56" t="n">
-        <v>318.788094727839</v>
+        <v>318.739999675033</v>
       </c>
       <c r="F56" t="n">
         <v>2018</v>
@@ -2914,13 +2914,13 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>345.522598486938</v>
+        <v>344.866863395963</v>
       </c>
       <c r="D57" t="n">
-        <v>317.099379458745</v>
+        <v>320.174844037373</v>
       </c>
       <c r="E57" t="n">
-        <v>373.553090381291</v>
+        <v>371.240882357019</v>
       </c>
       <c r="F57" t="n">
         <v>2018</v>
@@ -2952,13 +2952,13 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>409.565147997331</v>
+        <v>409.314128952109</v>
       </c>
       <c r="D58" t="n">
-        <v>379.213768643449</v>
+        <v>380.05468959613</v>
       </c>
       <c r="E58" t="n">
-        <v>441.557871204278</v>
+        <v>441.521909680599</v>
       </c>
       <c r="F58" t="n">
         <v>2018</v>
@@ -2990,13 +2990,13 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>122.134382002503</v>
+        <v>122.387558073051</v>
       </c>
       <c r="D59" t="n">
-        <v>108.680418625597</v>
+        <v>109.735565616785</v>
       </c>
       <c r="E59" t="n">
-        <v>136.441880556531</v>
+        <v>136.892297470692</v>
       </c>
       <c r="F59" t="n">
         <v>2018</v>
@@ -3028,13 +3028,13 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>421.225266245716</v>
+        <v>420.644799978696</v>
       </c>
       <c r="D60" t="n">
-        <v>388.524197127976</v>
+        <v>392.104357562902</v>
       </c>
       <c r="E60" t="n">
-        <v>453.098912419583</v>
+        <v>455.572674980793</v>
       </c>
       <c r="F60" t="n">
         <v>2018</v>
@@ -3066,13 +3066,13 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>210.890070700472</v>
+        <v>211.056911279951</v>
       </c>
       <c r="D61" t="n">
-        <v>189.758649255158</v>
+        <v>194.24565509219</v>
       </c>
       <c r="E61" t="n">
-        <v>231.388900990291</v>
+        <v>228.985091007261</v>
       </c>
       <c r="F61" t="n">
         <v>2018</v>
@@ -3104,13 +3104,13 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>135.091702753409</v>
+        <v>134.99883158292</v>
       </c>
       <c r="D62" t="n">
-        <v>121.72165958372</v>
+        <v>121.768558366033</v>
       </c>
       <c r="E62" t="n">
-        <v>148.638280096506</v>
+        <v>149.25162091313</v>
       </c>
       <c r="F62" t="n">
         <v>2018</v>
@@ -3142,13 +3142,13 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>587.082417525338</v>
+        <v>588.822507830303</v>
       </c>
       <c r="D63" t="n">
-        <v>545.304974432013</v>
+        <v>550.190487134969</v>
       </c>
       <c r="E63" t="n">
-        <v>631.45721328426</v>
+        <v>630.971425279697</v>
       </c>
       <c r="F63" t="n">
         <v>2018</v>
@@ -3180,13 +3180,13 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>45.8375097566532</v>
+        <v>45.6236774689015</v>
       </c>
       <c r="D64" t="n">
-        <v>39.6026709133832</v>
+        <v>39.2296848117649</v>
       </c>
       <c r="E64" t="n">
-        <v>52.9259486650324</v>
+        <v>53.0054321750375</v>
       </c>
       <c r="F64" t="n">
         <v>2018</v>
@@ -3218,13 +3218,13 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>164.099272284181</v>
+        <v>164.62881067071</v>
       </c>
       <c r="D65" t="n">
-        <v>147.42269229057</v>
+        <v>149.611953891492</v>
       </c>
       <c r="E65" t="n">
-        <v>179.825123313232</v>
+        <v>182.080399579807</v>
       </c>
       <c r="F65" t="n">
         <v>2018</v>
@@ -3256,13 +3256,13 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>161.214186402004</v>
+        <v>161.413745278554</v>
       </c>
       <c r="D66" t="n">
-        <v>145.955605618728</v>
+        <v>147.070315894515</v>
       </c>
       <c r="E66" t="n">
-        <v>177.942036185128</v>
+        <v>177.895096503343</v>
       </c>
       <c r="F66" t="n">
         <v>2018</v>
@@ -3294,13 +3294,13 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>56.9289815156351</v>
+        <v>56.5699151817707</v>
       </c>
       <c r="D67" t="n">
-        <v>49.6572074400648</v>
+        <v>49.689737743851</v>
       </c>
       <c r="E67" t="n">
-        <v>64.936733265714</v>
+        <v>64.8520182311287</v>
       </c>
       <c r="F67" t="n">
         <v>2018</v>
@@ -3332,13 +3332,13 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>98.9186811570759</v>
+        <v>99.1007567804332</v>
       </c>
       <c r="D68" t="n">
-        <v>87.8259070110964</v>
+        <v>89.2226352024309</v>
       </c>
       <c r="E68" t="n">
-        <v>110.10466244356</v>
+        <v>111.520847229767</v>
       </c>
       <c r="F68" t="n">
         <v>2018</v>
@@ -3370,13 +3370,13 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>113.028506559826</v>
+        <v>112.900874619328</v>
       </c>
       <c r="D69" t="n">
-        <v>101.174764131612</v>
+        <v>101.916323177873</v>
       </c>
       <c r="E69" t="n">
-        <v>125.878181678133</v>
+        <v>125.052257305967</v>
       </c>
       <c r="F69" t="n">
         <v>2018</v>
@@ -3408,13 +3408,13 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>473.358664132964</v>
+        <v>472.927264347277</v>
       </c>
       <c r="D70" t="n">
-        <v>441.206731481462</v>
+        <v>442.453722564743</v>
       </c>
       <c r="E70" t="n">
-        <v>508.906952990836</v>
+        <v>507.672991615826</v>
       </c>
       <c r="F70" t="n">
         <v>2018</v>
@@ -3446,13 +3446,13 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>37.2250937513804</v>
+        <v>37.2406168536462</v>
       </c>
       <c r="D71" t="n">
-        <v>31.6351240277917</v>
+        <v>31.9268335185218</v>
       </c>
       <c r="E71" t="n">
-        <v>42.9528276519399</v>
+        <v>43.43601674702</v>
       </c>
       <c r="F71" t="n">
         <v>2018</v>
@@ -3484,13 +3484,13 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>78.4631642581901</v>
+        <v>78.6182430844865</v>
       </c>
       <c r="D72" t="n">
-        <v>69.3556964712417</v>
+        <v>69.7668803259863</v>
       </c>
       <c r="E72" t="n">
-        <v>88.7083546603084</v>
+        <v>88.5939363645192</v>
       </c>
       <c r="F72" t="n">
         <v>2018</v>
@@ -3522,13 +3522,13 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>142.789441306199</v>
+        <v>142.946518122723</v>
       </c>
       <c r="D73" t="n">
-        <v>127.652565541459</v>
+        <v>128.327503210964</v>
       </c>
       <c r="E73" t="n">
-        <v>157.27702995365</v>
+        <v>160.191904339631</v>
       </c>
       <c r="F73" t="n">
         <v>2018</v>
@@ -3560,13 +3560,13 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>363.486310028569</v>
+        <v>363.008656478637</v>
       </c>
       <c r="D74" t="n">
-        <v>334.592278446908</v>
+        <v>337.529898139638</v>
       </c>
       <c r="E74" t="n">
-        <v>391.724104959881</v>
+        <v>390.817966414459</v>
       </c>
       <c r="F74" t="n">
         <v>2018</v>
@@ -3598,13 +3598,13 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>54.9308757248601</v>
+        <v>55.0906497319974</v>
       </c>
       <c r="D75" t="n">
-        <v>48.342740094748</v>
+        <v>48.1905316998946</v>
       </c>
       <c r="E75" t="n">
-        <v>62.7210588017164</v>
+        <v>62.7260024770312</v>
       </c>
       <c r="F75" t="n">
         <v>2018</v>
@@ -3636,13 +3636,13 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>54.4472657040904</v>
+        <v>54.443254687485</v>
       </c>
       <c r="D76" t="n">
-        <v>47.0485508357732</v>
+        <v>46.9298591627615</v>
       </c>
       <c r="E76" t="n">
-        <v>63.5112009555013</v>
+        <v>63.3041871641698</v>
       </c>
       <c r="F76" t="n">
         <v>2018</v>
@@ -3674,13 +3674,13 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>324.978953372432</v>
+        <v>326.490162862663</v>
       </c>
       <c r="D77" t="n">
-        <v>300.946247939007</v>
+        <v>301.306090007042</v>
       </c>
       <c r="E77" t="n">
-        <v>353.067185876132</v>
+        <v>352.129963941792</v>
       </c>
       <c r="F77" t="n">
         <v>2018</v>
@@ -3712,13 +3712,13 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>109.724243051251</v>
+        <v>109.681337201791</v>
       </c>
       <c r="D78" t="n">
-        <v>98.3266857491915</v>
+        <v>98.7357686164016</v>
       </c>
       <c r="E78" t="n">
-        <v>122.007803588701</v>
+        <v>123.00257323101</v>
       </c>
       <c r="F78" t="n">
         <v>2018</v>
@@ -3750,13 +3750,13 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>207.993125357852</v>
+        <v>208.325195041186</v>
       </c>
       <c r="D79" t="n">
-        <v>189.744190899397</v>
+        <v>191.242168300517</v>
       </c>
       <c r="E79" t="n">
-        <v>229.107233982917</v>
+        <v>227.75670821367</v>
       </c>
       <c r="F79" t="n">
         <v>2018</v>
@@ -3788,13 +3788,13 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>169.274466608133</v>
+        <v>168.864305985353</v>
       </c>
       <c r="D80" t="n">
-        <v>152.104488367498</v>
+        <v>153.42099309715</v>
       </c>
       <c r="E80" t="n">
-        <v>187.303827189104</v>
+        <v>185.509161044881</v>
       </c>
       <c r="F80" t="n">
         <v>2018</v>
@@ -3826,13 +3826,13 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>213.457841137182</v>
+        <v>213.188818504689</v>
       </c>
       <c r="D81" t="n">
-        <v>195.104303783861</v>
+        <v>195.225698170352</v>
       </c>
       <c r="E81" t="n">
-        <v>232.874924543678</v>
+        <v>233.249366544091</v>
       </c>
       <c r="F81" t="n">
         <v>2018</v>
@@ -3864,13 +3864,13 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>212.45950801182</v>
+        <v>212.377613664466</v>
       </c>
       <c r="D82" t="n">
-        <v>193.561343568657</v>
+        <v>194.757299514816</v>
       </c>
       <c r="E82" t="n">
-        <v>232.185407331458</v>
+        <v>232.313924206694</v>
       </c>
       <c r="F82" t="n">
         <v>2018</v>
@@ -3902,13 +3902,13 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>738.265516506975</v>
+        <v>739.649676695598</v>
       </c>
       <c r="D83" t="n">
-        <v>690.711351109333</v>
+        <v>694.835428177584</v>
       </c>
       <c r="E83" t="n">
-        <v>791.726361399003</v>
+        <v>792.613123719316</v>
       </c>
       <c r="F83" t="n">
         <v>2018</v>
@@ -3940,13 +3940,13 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>109.522439484953</v>
+        <v>109.737338179623</v>
       </c>
       <c r="D84" t="n">
-        <v>98.1459747692379</v>
+        <v>99.0577250834293</v>
       </c>
       <c r="E84" t="n">
-        <v>122.479516196367</v>
+        <v>121.537345060261</v>
       </c>
       <c r="F84" t="n">
         <v>2018</v>
@@ -3978,13 +3978,13 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>158.122255618673</v>
+        <v>158.90279129099</v>
       </c>
       <c r="D85" t="n">
-        <v>144.701735377911</v>
+        <v>143.550999122392</v>
       </c>
       <c r="E85" t="n">
-        <v>173.363641242211</v>
+        <v>175.009300633093</v>
       </c>
       <c r="F85" t="n">
         <v>2018</v>
@@ -4016,13 +4016,13 @@
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>167.154080568031</v>
+        <v>167.310242017146</v>
       </c>
       <c r="D86" t="n">
-        <v>152.122136008768</v>
+        <v>152.032931025857</v>
       </c>
       <c r="E86" t="n">
-        <v>183.700892706041</v>
+        <v>184.486814537505</v>
       </c>
       <c r="F86" t="n">
         <v>2018</v>
@@ -4054,13 +4054,13 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>496.459516899702</v>
+        <v>494.423551901339</v>
       </c>
       <c r="D87" t="n">
-        <v>461.073277501811</v>
+        <v>462.217784600931</v>
       </c>
       <c r="E87" t="n">
-        <v>533.243874294523</v>
+        <v>532.229127574076</v>
       </c>
       <c r="F87" t="n">
         <v>2018</v>
@@ -4092,13 +4092,13 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>46.6988690435538</v>
+        <v>46.5272181442891</v>
       </c>
       <c r="D88" t="n">
-        <v>40.4620897716616</v>
+        <v>40.172324725511</v>
       </c>
       <c r="E88" t="n">
-        <v>53.5905046440721</v>
+        <v>52.8641360679131</v>
       </c>
       <c r="F88" t="n">
         <v>2018</v>
@@ -4130,13 +4130,13 @@
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>144.527143689053</v>
+        <v>144.754416408027</v>
       </c>
       <c r="D89" t="n">
-        <v>130.557323640157</v>
+        <v>130.529299206955</v>
       </c>
       <c r="E89" t="n">
-        <v>159.952129775828</v>
+        <v>159.202847627558</v>
       </c>
       <c r="F89" t="n">
         <v>2018</v>
@@ -4168,13 +4168,13 @@
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>190.352036812269</v>
+        <v>190.737279227769</v>
       </c>
       <c r="D90" t="n">
-        <v>173.960629838522</v>
+        <v>174.249083947814</v>
       </c>
       <c r="E90" t="n">
-        <v>207.370558914477</v>
+        <v>207.563993852234</v>
       </c>
       <c r="F90" t="n">
         <v>2018</v>
@@ -4206,13 +4206,13 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>184.292618562813</v>
+        <v>184.099454105554</v>
       </c>
       <c r="D91" t="n">
-        <v>169.252543222111</v>
+        <v>168.903935145103</v>
       </c>
       <c r="E91" t="n">
-        <v>203.092793624166</v>
+        <v>202.132881764494</v>
       </c>
       <c r="F91" t="n">
         <v>2018</v>
@@ -4244,13 +4244,13 @@
         <v>91</v>
       </c>
       <c r="C92" t="n">
-        <v>595.755870923362</v>
+        <v>596.450974711088</v>
       </c>
       <c r="D92" t="n">
-        <v>556.103878288119</v>
+        <v>560.588856072889</v>
       </c>
       <c r="E92" t="n">
-        <v>637.890070473149</v>
+        <v>637.476575798315</v>
       </c>
       <c r="F92" t="n">
         <v>2018</v>
@@ -4282,13 +4282,13 @@
         <v>92</v>
       </c>
       <c r="C93" t="n">
-        <v>232.490520750226</v>
+        <v>232.894533901044</v>
       </c>
       <c r="D93" t="n">
-        <v>213.890798830241</v>
+        <v>213.424287345295</v>
       </c>
       <c r="E93" t="n">
-        <v>253.680424768351</v>
+        <v>252.744740996018</v>
       </c>
       <c r="F93" t="n">
         <v>2018</v>
@@ -4320,13 +4320,13 @@
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>67.9308653966925</v>
+        <v>67.8750929018013</v>
       </c>
       <c r="D94" t="n">
-        <v>59.911754038256</v>
+        <v>59.8445421212478</v>
       </c>
       <c r="E94" t="n">
-        <v>76.8319583549092</v>
+        <v>76.6225979107955</v>
       </c>
       <c r="F94" t="n">
         <v>2018</v>
@@ -4358,13 +4358,13 @@
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>10.7090933092713</v>
+        <v>10.5554065623681</v>
       </c>
       <c r="D95" t="n">
-        <v>8.38157641246651</v>
+        <v>8.25258624294238</v>
       </c>
       <c r="E95" t="n">
-        <v>13.6645333029228</v>
+        <v>13.4968683386396</v>
       </c>
       <c r="F95" t="n">
         <v>2018</v>
@@ -4396,13 +4396,13 @@
         <v>95</v>
       </c>
       <c r="C96" t="n">
-        <v>102.446836630051</v>
+        <v>102.629721261074</v>
       </c>
       <c r="D96" t="n">
-        <v>91.9780250601357</v>
+        <v>92.2793469515436</v>
       </c>
       <c r="E96" t="n">
-        <v>113.993672847565</v>
+        <v>114.678665790268</v>
       </c>
       <c r="F96" t="n">
         <v>2018</v>
@@ -4434,13 +4434,13 @@
         <v>96</v>
       </c>
       <c r="C97" t="n">
-        <v>225.212739781765</v>
+        <v>225.550410917671</v>
       </c>
       <c r="D97" t="n">
-        <v>204.933483208102</v>
+        <v>207.233895643208</v>
       </c>
       <c r="E97" t="n">
-        <v>245.653657505854</v>
+        <v>246.195569900304</v>
       </c>
       <c r="F97" t="n">
         <v>2018</v>
@@ -4472,13 +4472,13 @@
         <v>97</v>
       </c>
       <c r="C98" t="n">
-        <v>229.722824675766</v>
+        <v>229.660971884686</v>
       </c>
       <c r="D98" t="n">
-        <v>209.014591881264</v>
+        <v>209.783386824641</v>
       </c>
       <c r="E98" t="n">
-        <v>249.208089627854</v>
+        <v>250.99240728774</v>
       </c>
       <c r="F98" t="n">
         <v>2018</v>
@@ -4510,13 +4510,13 @@
         <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>172.482063781437</v>
+        <v>172.496792200652</v>
       </c>
       <c r="D99" t="n">
-        <v>157.033382741427</v>
+        <v>158.771078260084</v>
       </c>
       <c r="E99" t="n">
-        <v>190.117688623439</v>
+        <v>189.786978667995</v>
       </c>
       <c r="F99" t="n">
         <v>2018</v>
@@ -4548,13 +4548,13 @@
         <v>99</v>
       </c>
       <c r="C100" t="n">
-        <v>174.355463833388</v>
+        <v>174.595442212848</v>
       </c>
       <c r="D100" t="n">
-        <v>159.225459498535</v>
+        <v>158.300730851594</v>
       </c>
       <c r="E100" t="n">
-        <v>190.027735563377</v>
+        <v>190.713044923985</v>
       </c>
       <c r="F100" t="n">
         <v>2018</v>
@@ -4586,13 +4586,13 @@
         <v>100</v>
       </c>
       <c r="C101" t="n">
-        <v>56.607536921627</v>
+        <v>56.7895168315019</v>
       </c>
       <c r="D101" t="n">
-        <v>50.0265437915637</v>
+        <v>49.5830428457474</v>
       </c>
       <c r="E101" t="n">
-        <v>64.5650322341389</v>
+        <v>64.5830696819849</v>
       </c>
       <c r="F101" t="n">
         <v>2018</v>
@@ -4624,13 +4624,13 @@
         <v>101</v>
       </c>
       <c r="C102" t="n">
-        <v>686.459194599345</v>
+        <v>687.189209227403</v>
       </c>
       <c r="D102" t="n">
-        <v>642.090066907739</v>
+        <v>643.621838272622</v>
       </c>
       <c r="E102" t="n">
-        <v>736.484147705989</v>
+        <v>735.951192490634</v>
       </c>
       <c r="F102" t="n">
         <v>2018</v>
@@ -4662,13 +4662,13 @@
         <v>102</v>
       </c>
       <c r="C103" t="n">
-        <v>365.478574159145</v>
+        <v>364.608221288519</v>
       </c>
       <c r="D103" t="n">
-        <v>337.093769234818</v>
+        <v>339.905465194126</v>
       </c>
       <c r="E103" t="n">
-        <v>393.043204123245</v>
+        <v>394.113491042836</v>
       </c>
       <c r="F103" t="n">
         <v>2018</v>
@@ -4700,13 +4700,13 @@
         <v>103</v>
       </c>
       <c r="C104" t="n">
-        <v>137.212367549038</v>
+        <v>137.191928793949</v>
       </c>
       <c r="D104" t="n">
-        <v>123.868953998868</v>
+        <v>124.621804145966</v>
       </c>
       <c r="E104" t="n">
-        <v>152.90881517521</v>
+        <v>151.902792262073</v>
       </c>
       <c r="F104" t="n">
         <v>2018</v>
@@ -4738,13 +4738,13 @@
         <v>104</v>
       </c>
       <c r="C105" t="n">
-        <v>198.381948484665</v>
+        <v>198.732086027188</v>
       </c>
       <c r="D105" t="n">
-        <v>181.951570098969</v>
+        <v>182.762246412299</v>
       </c>
       <c r="E105" t="n">
-        <v>217.511021970552</v>
+        <v>216.118246759804</v>
       </c>
       <c r="F105" t="n">
         <v>2018</v>
@@ -4776,13 +4776,13 @@
         <v>105</v>
       </c>
       <c r="C106" t="n">
-        <v>1680.55724565694</v>
+        <v>1683.17111368275</v>
       </c>
       <c r="D106" t="n">
-        <v>1579.97177793021</v>
+        <v>1586.74887525684</v>
       </c>
       <c r="E106" t="n">
-        <v>1783.77966124187</v>
+        <v>1784.0187169902</v>
       </c>
       <c r="F106" t="n">
         <v>2018</v>
@@ -4814,13 +4814,13 @@
         <v>106</v>
       </c>
       <c r="C107" t="n">
-        <v>173.196365717069</v>
+        <v>172.999980807439</v>
       </c>
       <c r="D107" t="n">
-        <v>155.871458426596</v>
+        <v>156.726353557427</v>
       </c>
       <c r="E107" t="n">
-        <v>191.964810493417</v>
+        <v>192.324776434546</v>
       </c>
       <c r="F107" t="n">
         <v>2018</v>
@@ -4852,13 +4852,13 @@
         <v>107</v>
       </c>
       <c r="C108" t="n">
-        <v>187.981533745328</v>
+        <v>188.075596044677</v>
       </c>
       <c r="D108" t="n">
-        <v>170.865731983359</v>
+        <v>172.438586501646</v>
       </c>
       <c r="E108" t="n">
-        <v>207.280852766699</v>
+        <v>206.245575887834</v>
       </c>
       <c r="F108" t="n">
         <v>2018</v>
@@ -4890,13 +4890,13 @@
         <v>108</v>
       </c>
       <c r="C109" t="n">
-        <v>80.4419633978111</v>
+        <v>80.8940068205157</v>
       </c>
       <c r="D109" t="n">
-        <v>71.4409391479206</v>
+        <v>71.7589690710758</v>
       </c>
       <c r="E109" t="n">
-        <v>90.7690715854181</v>
+        <v>91.0458575195219</v>
       </c>
       <c r="F109" t="n">
         <v>2018</v>
@@ -4928,13 +4928,13 @@
         <v>109</v>
       </c>
       <c r="C110" t="n">
-        <v>242.186931377033</v>
+        <v>242.77926746149</v>
       </c>
       <c r="D110" t="n">
-        <v>220.799235517366</v>
+        <v>223.634874090562</v>
       </c>
       <c r="E110" t="n">
-        <v>264.202135230049</v>
+        <v>263.386561396677</v>
       </c>
       <c r="F110" t="n">
         <v>2018</v>
@@ -4966,13 +4966,13 @@
         <v>110</v>
       </c>
       <c r="C111" t="n">
-        <v>322.699387398364</v>
+        <v>322.55573657698</v>
       </c>
       <c r="D111" t="n">
-        <v>297.43139309217</v>
+        <v>297.164230801254</v>
       </c>
       <c r="E111" t="n">
-        <v>349.13208160452</v>
+        <v>350.412026253654</v>
       </c>
       <c r="F111" t="n">
         <v>2018</v>
@@ -5004,13 +5004,13 @@
         <v>111</v>
       </c>
       <c r="C112" t="n">
-        <v>68.315213042416</v>
+        <v>68.0797800128443</v>
       </c>
       <c r="D112" t="n">
-        <v>60.1477176405316</v>
+        <v>59.8501252379336</v>
       </c>
       <c r="E112" t="n">
-        <v>76.8102433612092</v>
+        <v>76.9972849484974</v>
       </c>
       <c r="F112" t="n">
         <v>2018</v>
@@ -5042,13 +5042,13 @@
         <v>112</v>
       </c>
       <c r="C113" t="n">
-        <v>166.537306871442</v>
+        <v>166.96034026523</v>
       </c>
       <c r="D113" t="n">
-        <v>151.446044997408</v>
+        <v>152.166331978875</v>
       </c>
       <c r="E113" t="n">
-        <v>183.73878369156</v>
+        <v>183.617673822861</v>
       </c>
       <c r="F113" t="n">
         <v>2018</v>
@@ -5080,13 +5080,13 @@
         <v>113</v>
       </c>
       <c r="C114" t="n">
-        <v>199.602090836984</v>
+        <v>200.16894769394</v>
       </c>
       <c r="D114" t="n">
-        <v>182.005131820898</v>
+        <v>182.418920824272</v>
       </c>
       <c r="E114" t="n">
-        <v>219.809223363659</v>
+        <v>220.074607743559</v>
       </c>
       <c r="F114" t="n">
         <v>2018</v>
@@ -5118,13 +5118,13 @@
         <v>114</v>
       </c>
       <c r="C115" t="n">
-        <v>343.515257002757</v>
+        <v>344.716189371849</v>
       </c>
       <c r="D115" t="n">
-        <v>316.522047789978</v>
+        <v>319.413198023689</v>
       </c>
       <c r="E115" t="n">
-        <v>372.115054046813</v>
+        <v>372.944642890461</v>
       </c>
       <c r="F115" t="n">
         <v>2018</v>
@@ -5156,13 +5156,13 @@
         <v>115</v>
       </c>
       <c r="C116" t="n">
-        <v>185.441419338083</v>
+        <v>184.965111283316</v>
       </c>
       <c r="D116" t="n">
-        <v>169.209324049941</v>
+        <v>168.49198043576</v>
       </c>
       <c r="E116" t="n">
-        <v>204.299900925935</v>
+        <v>202.583662265996</v>
       </c>
       <c r="F116" t="n">
         <v>2018</v>
@@ -5194,13 +5194,13 @@
         <v>116</v>
       </c>
       <c r="C117" t="n">
-        <v>58.0219769609992</v>
+        <v>57.9346924153863</v>
       </c>
       <c r="D117" t="n">
-        <v>50.4093720968564</v>
+        <v>50.7401778869042</v>
       </c>
       <c r="E117" t="n">
-        <v>66.3164729296934</v>
+        <v>66.4691694191812</v>
       </c>
       <c r="F117" t="n">
         <v>2018</v>
@@ -5232,13 +5232,13 @@
         <v>117</v>
       </c>
       <c r="C118" t="n">
-        <v>87.261820154317</v>
+        <v>86.8291775790171</v>
       </c>
       <c r="D118" t="n">
-        <v>76.9686640641547</v>
+        <v>76.9308847912846</v>
       </c>
       <c r="E118" t="n">
-        <v>98.6662338227379</v>
+        <v>97.5837040746101</v>
       </c>
       <c r="F118" t="n">
         <v>2018</v>
@@ -5270,13 +5270,13 @@
         <v>118</v>
       </c>
       <c r="C119" t="n">
-        <v>258.64302810938</v>
+        <v>257.618613086564</v>
       </c>
       <c r="D119" t="n">
-        <v>236.417655891154</v>
+        <v>238.302118104407</v>
       </c>
       <c r="E119" t="n">
-        <v>280.234053278364</v>
+        <v>282.194038724931</v>
       </c>
       <c r="F119" t="n">
         <v>2018</v>
@@ -5308,13 +5308,13 @@
         <v>119</v>
       </c>
       <c r="C120" t="n">
-        <v>49.5893211596896</v>
+        <v>49.6776308287812</v>
       </c>
       <c r="D120" t="n">
-        <v>43.7945135478358</v>
+        <v>43.2679006113904</v>
       </c>
       <c r="E120" t="n">
-        <v>56.727528844255</v>
+        <v>56.7906411908748</v>
       </c>
       <c r="F120" t="n">
         <v>2018</v>
@@ -5346,13 +5346,13 @@
         <v>120</v>
       </c>
       <c r="C121" t="n">
-        <v>164.250283352336</v>
+        <v>165.22507249949</v>
       </c>
       <c r="D121" t="n">
-        <v>150.499973939567</v>
+        <v>150.362089609494</v>
       </c>
       <c r="E121" t="n">
-        <v>181.935044923634</v>
+        <v>181.326532949249</v>
       </c>
       <c r="F121" t="n">
         <v>2018</v>
@@ -5384,13 +5384,13 @@
         <v>122</v>
       </c>
       <c r="C122" t="n">
-        <v>341.270454428985</v>
+        <v>340.734965512813</v>
       </c>
       <c r="D122" t="n">
-        <v>316.064087800887</v>
+        <v>316.332862216025</v>
       </c>
       <c r="E122" t="n">
-        <v>368.397748398926</v>
+        <v>369.064173329448</v>
       </c>
       <c r="F122" t="n">
         <v>2018</v>
@@ -5422,13 +5422,13 @@
         <v>123</v>
       </c>
       <c r="C123" t="n">
-        <v>711.629690498448</v>
+        <v>712.980839332775</v>
       </c>
       <c r="D123" t="n">
-        <v>667.737840118462</v>
+        <v>668.369060708234</v>
       </c>
       <c r="E123" t="n">
-        <v>762.334565533809</v>
+        <v>759.572392635658</v>
       </c>
       <c r="F123" t="n">
         <v>2018</v>
@@ -5460,13 +5460,13 @@
         <v>124</v>
       </c>
       <c r="C124" t="n">
-        <v>772.740604001072</v>
+        <v>774.016910019119</v>
       </c>
       <c r="D124" t="n">
-        <v>723.923993998258</v>
+        <v>728.001086722848</v>
       </c>
       <c r="E124" t="n">
-        <v>825.580467057316</v>
+        <v>823.33167405852</v>
       </c>
       <c r="F124" t="n">
         <v>2018</v>
@@ -5498,13 +5498,13 @@
         <v>125</v>
       </c>
       <c r="C125" t="n">
-        <v>1882.07444258186</v>
+        <v>1883.90822792904</v>
       </c>
       <c r="D125" t="n">
-        <v>1768.55276844549</v>
+        <v>1789.77080462643</v>
       </c>
       <c r="E125" t="n">
-        <v>1992.25190518322</v>
+        <v>2001.9901255873</v>
       </c>
       <c r="F125" t="n">
         <v>2018</v>
@@ -5536,13 +5536,13 @@
         <v>126</v>
       </c>
       <c r="C126" t="n">
-        <v>353.654531849978</v>
+        <v>353.43742176066</v>
       </c>
       <c r="D126" t="n">
-        <v>325.282343533352</v>
+        <v>325.760991321369</v>
       </c>
       <c r="E126" t="n">
-        <v>383.251030386718</v>
+        <v>380.628027004183</v>
       </c>
       <c r="F126" t="n">
         <v>2018</v>
@@ -5574,13 +5574,13 @@
         <v>127</v>
       </c>
       <c r="C127" t="n">
-        <v>244.662846845078</v>
+        <v>244.838177660452</v>
       </c>
       <c r="D127" t="n">
-        <v>224.204902796012</v>
+        <v>225.048985530803</v>
       </c>
       <c r="E127" t="n">
-        <v>268.356441029892</v>
+        <v>265.089560762178</v>
       </c>
       <c r="F127" t="n">
         <v>2018</v>
@@ -5612,13 +5612,13 @@
         <v>128</v>
       </c>
       <c r="C128" t="n">
-        <v>286.127961083729</v>
+        <v>286.30996347204</v>
       </c>
       <c r="D128" t="n">
-        <v>260.974205315372</v>
+        <v>263.777282910062</v>
       </c>
       <c r="E128" t="n">
-        <v>311.322256227383</v>
+        <v>310.576343878814</v>
       </c>
       <c r="F128" t="n">
         <v>2018</v>
@@ -5650,13 +5650,13 @@
         <v>129</v>
       </c>
       <c r="C129" t="n">
-        <v>151.197616348054</v>
+        <v>152.092716311169</v>
       </c>
       <c r="D129" t="n">
-        <v>137.165173150604</v>
+        <v>137.850523803682</v>
       </c>
       <c r="E129" t="n">
-        <v>166.353458159622</v>
+        <v>166.770241168072</v>
       </c>
       <c r="F129" t="n">
         <v>2018</v>
@@ -5688,13 +5688,13 @@
         <v>130</v>
       </c>
       <c r="C130" t="n">
-        <v>139.105343426455</v>
+        <v>139.228441522267</v>
       </c>
       <c r="D130" t="n">
-        <v>125.879341693892</v>
+        <v>126.875056008835</v>
       </c>
       <c r="E130" t="n">
-        <v>153.507274514696</v>
+        <v>153.988166857893</v>
       </c>
       <c r="F130" t="n">
         <v>2018</v>
@@ -5726,13 +5726,13 @@
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>39.5771380572779</v>
+        <v>39.2846347057779</v>
       </c>
       <c r="D131" t="n">
-        <v>33.2219465211852</v>
+        <v>33.4567259287708</v>
       </c>
       <c r="E131" t="n">
-        <v>46.1970724040336</v>
+        <v>46.3716328756333</v>
       </c>
       <c r="F131" t="n">
         <v>2019</v>
@@ -5764,13 +5764,13 @@
         <v>2</v>
       </c>
       <c r="C132" t="n">
-        <v>99.204512401701</v>
+        <v>99.4830752597888</v>
       </c>
       <c r="D132" t="n">
-        <v>90.1532275263658</v>
+        <v>89.2817033550516</v>
       </c>
       <c r="E132" t="n">
-        <v>109.780807026816</v>
+        <v>110.868061962627</v>
       </c>
       <c r="F132" t="n">
         <v>2019</v>
@@ -5802,13 +5802,13 @@
         <v>3</v>
       </c>
       <c r="C133" t="n">
-        <v>109.538450486516</v>
+        <v>109.82284900847</v>
       </c>
       <c r="D133" t="n">
-        <v>99.1015979893767</v>
+        <v>99.4431267158417</v>
       </c>
       <c r="E133" t="n">
-        <v>120.931164033367</v>
+        <v>120.905369233652</v>
       </c>
       <c r="F133" t="n">
         <v>2019</v>
@@ -5840,13 +5840,13 @@
         <v>4</v>
       </c>
       <c r="C134" t="n">
-        <v>1523.76299970561</v>
+        <v>1522.47152024662</v>
       </c>
       <c r="D134" t="n">
-        <v>1462.56471808924</v>
+        <v>1459.34571790377</v>
       </c>
       <c r="E134" t="n">
-        <v>1587.41486880286</v>
+        <v>1591.34024042272</v>
       </c>
       <c r="F134" t="n">
         <v>2019</v>
@@ -5878,13 +5878,13 @@
         <v>5</v>
       </c>
       <c r="C135" t="n">
-        <v>255.783911594037</v>
+        <v>256.987019156518</v>
       </c>
       <c r="D135" t="n">
-        <v>238.213686299743</v>
+        <v>238.770400803899</v>
       </c>
       <c r="E135" t="n">
-        <v>273.897764566473</v>
+        <v>277.648115764538</v>
       </c>
       <c r="F135" t="n">
         <v>2019</v>
@@ -5916,13 +5916,13 @@
         <v>6</v>
       </c>
       <c r="C136" t="n">
-        <v>897.584044787011</v>
+        <v>900.086832301381</v>
       </c>
       <c r="D136" t="n">
-        <v>856.097289470011</v>
+        <v>857.602881592327</v>
       </c>
       <c r="E136" t="n">
-        <v>938.724211769311</v>
+        <v>944.00182050612</v>
       </c>
       <c r="F136" t="n">
         <v>2019</v>
@@ -5954,13 +5954,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="n">
-        <v>471.693904773476</v>
+        <v>471.8068116507</v>
       </c>
       <c r="D137" t="n">
-        <v>443.226340834918</v>
+        <v>445.291223798469</v>
       </c>
       <c r="E137" t="n">
-        <v>499.425855945128</v>
+        <v>500.66307568135</v>
       </c>
       <c r="F137" t="n">
         <v>2019</v>
@@ -5992,13 +5992,13 @@
         <v>8</v>
       </c>
       <c r="C138" t="n">
-        <v>73.1224546671176</v>
+        <v>73.2207261238874</v>
       </c>
       <c r="D138" t="n">
-        <v>66.2294531322067</v>
+        <v>65.6033694036841</v>
       </c>
       <c r="E138" t="n">
-        <v>80.8528483658698</v>
+        <v>81.79679890091</v>
       </c>
       <c r="F138" t="n">
         <v>2019</v>
@@ -6030,13 +6030,13 @@
         <v>9</v>
       </c>
       <c r="C139" t="n">
-        <v>138.082466779886</v>
+        <v>137.991411871301</v>
       </c>
       <c r="D139" t="n">
-        <v>125.37567164943</v>
+        <v>125.850076613285</v>
       </c>
       <c r="E139" t="n">
-        <v>150.683954152755</v>
+        <v>152.064008124866</v>
       </c>
       <c r="F139" t="n">
         <v>2019</v>
@@ -6068,13 +6068,13 @@
         <v>10</v>
       </c>
       <c r="C140" t="n">
-        <v>107.589733941697</v>
+        <v>107.682673325418</v>
       </c>
       <c r="D140" t="n">
-        <v>97.019417407374</v>
+        <v>97.1641561646399</v>
       </c>
       <c r="E140" t="n">
-        <v>118.658450277508</v>
+        <v>119.745363196526</v>
       </c>
       <c r="F140" t="n">
         <v>2019</v>
@@ -6106,13 +6106,13 @@
         <v>11</v>
       </c>
       <c r="C141" t="n">
-        <v>184.169179025226</v>
+        <v>183.778118193063</v>
       </c>
       <c r="D141" t="n">
-        <v>170.263470340782</v>
+        <v>169.926246135428</v>
       </c>
       <c r="E141" t="n">
-        <v>200.115282866542</v>
+        <v>200.021729783984</v>
       </c>
       <c r="F141" t="n">
         <v>2019</v>
@@ -6144,13 +6144,13 @@
         <v>12</v>
       </c>
       <c r="C142" t="n">
-        <v>236.060897659063</v>
+        <v>236.253234697769</v>
       </c>
       <c r="D142" t="n">
-        <v>217.69569130537</v>
+        <v>220.178612419507</v>
       </c>
       <c r="E142" t="n">
-        <v>254.344127952065</v>
+        <v>254.581446728931</v>
       </c>
       <c r="F142" t="n">
         <v>2019</v>
@@ -6182,13 +6182,13 @@
         <v>13</v>
       </c>
       <c r="C143" t="n">
-        <v>88.9747075697529</v>
+        <v>89.0115500309972</v>
       </c>
       <c r="D143" t="n">
-        <v>78.5857048176346</v>
+        <v>79.45165302643</v>
       </c>
       <c r="E143" t="n">
-        <v>98.9918960383749</v>
+        <v>99.5217226803548</v>
       </c>
       <c r="F143" t="n">
         <v>2019</v>
@@ -6220,13 +6220,13 @@
         <v>14</v>
       </c>
       <c r="C144" t="n">
-        <v>28.0829366222212</v>
+        <v>28.0903932779535</v>
       </c>
       <c r="D144" t="n">
-        <v>24.1193800812725</v>
+        <v>23.9932530911645</v>
       </c>
       <c r="E144" t="n">
-        <v>32.8403710806344</v>
+        <v>32.6642542441765</v>
       </c>
       <c r="F144" t="n">
         <v>2019</v>
@@ -6258,13 +6258,13 @@
         <v>15</v>
       </c>
       <c r="C145" t="n">
-        <v>173.329682898692</v>
+        <v>172.368050318926</v>
       </c>
       <c r="D145" t="n">
-        <v>159.521038758684</v>
+        <v>158.962472489784</v>
       </c>
       <c r="E145" t="n">
-        <v>188.824824930985</v>
+        <v>187.172673255291</v>
       </c>
       <c r="F145" t="n">
         <v>2019</v>
@@ -6296,13 +6296,13 @@
         <v>16</v>
       </c>
       <c r="C146" t="n">
-        <v>177.298062770646</v>
+        <v>177.291902854011</v>
       </c>
       <c r="D146" t="n">
-        <v>163.024866327249</v>
+        <v>162.454182295031</v>
       </c>
       <c r="E146" t="n">
-        <v>191.678455223588</v>
+        <v>193.55278329918</v>
       </c>
       <c r="F146" t="n">
         <v>2019</v>
@@ -6334,13 +6334,13 @@
         <v>17</v>
       </c>
       <c r="C147" t="n">
-        <v>160.124035795784</v>
+        <v>160.38787716588</v>
       </c>
       <c r="D147" t="n">
-        <v>146.9996439748</v>
+        <v>146.508864354476</v>
       </c>
       <c r="E147" t="n">
-        <v>175.470565041858</v>
+        <v>176.045051379236</v>
       </c>
       <c r="F147" t="n">
         <v>2019</v>
@@ -6372,13 +6372,13 @@
         <v>18</v>
       </c>
       <c r="C148" t="n">
-        <v>39.4114670576932</v>
+        <v>39.3820326275581</v>
       </c>
       <c r="D148" t="n">
-        <v>33.7987974634979</v>
+        <v>34.1858154501318</v>
       </c>
       <c r="E148" t="n">
-        <v>45.778030752871</v>
+        <v>45.3471642056449</v>
       </c>
       <c r="F148" t="n">
         <v>2019</v>
@@ -6410,13 +6410,13 @@
         <v>19</v>
       </c>
       <c r="C149" t="n">
-        <v>264.469974197419</v>
+        <v>265.498906677173</v>
       </c>
       <c r="D149" t="n">
-        <v>245.810532493772</v>
+        <v>245.308034657659</v>
       </c>
       <c r="E149" t="n">
-        <v>283.797805834887</v>
+        <v>284.621981935507</v>
       </c>
       <c r="F149" t="n">
         <v>2019</v>
@@ -6448,13 +6448,13 @@
         <v>20</v>
       </c>
       <c r="C150" t="n">
-        <v>133.834530615414</v>
+        <v>134.566282637905</v>
       </c>
       <c r="D150" t="n">
-        <v>122.203720453593</v>
+        <v>123.434997947664</v>
       </c>
       <c r="E150" t="n">
-        <v>147.024279841021</v>
+        <v>147.427841593567</v>
       </c>
       <c r="F150" t="n">
         <v>2019</v>
@@ -6486,13 +6486,13 @@
         <v>21</v>
       </c>
       <c r="C151" t="n">
-        <v>138.950605334429</v>
+        <v>139.610289596481</v>
       </c>
       <c r="D151" t="n">
-        <v>126.958165709061</v>
+        <v>127.076569391847</v>
       </c>
       <c r="E151" t="n">
-        <v>151.5806826961</v>
+        <v>153.201031195899</v>
       </c>
       <c r="F151" t="n">
         <v>2019</v>
@@ -6524,13 +6524,13 @@
         <v>22</v>
       </c>
       <c r="C152" t="n">
-        <v>412.06526931303</v>
+        <v>413.683697071137</v>
       </c>
       <c r="D152" t="n">
-        <v>387.671300177552</v>
+        <v>386.781958169924</v>
       </c>
       <c r="E152" t="n">
-        <v>438.493788979357</v>
+        <v>439.729842968445</v>
       </c>
       <c r="F152" t="n">
         <v>2019</v>
@@ -6562,13 +6562,13 @@
         <v>23</v>
       </c>
       <c r="C153" t="n">
-        <v>261.135040386126</v>
+        <v>260.96236228041</v>
       </c>
       <c r="D153" t="n">
-        <v>243.111514379088</v>
+        <v>241.588132091521</v>
       </c>
       <c r="E153" t="n">
-        <v>281.108682004265</v>
+        <v>282.595261835407</v>
       </c>
       <c r="F153" t="n">
         <v>2019</v>
@@ -6600,13 +6600,13 @@
         <v>24</v>
       </c>
       <c r="C154" t="n">
-        <v>240.565614215547</v>
+        <v>240.902246844281</v>
       </c>
       <c r="D154" t="n">
-        <v>223.206060184893</v>
+        <v>223.437171581033</v>
       </c>
       <c r="E154" t="n">
-        <v>257.750538750088</v>
+        <v>260.251838741705</v>
       </c>
       <c r="F154" t="n">
         <v>2019</v>
@@ -6638,13 +6638,13 @@
         <v>25</v>
       </c>
       <c r="C155" t="n">
-        <v>259.13157581556</v>
+        <v>260.43586384894</v>
       </c>
       <c r="D155" t="n">
-        <v>240.93381292114</v>
+        <v>240.998169879042</v>
       </c>
       <c r="E155" t="n">
-        <v>279.692720712022</v>
+        <v>280.098768090638</v>
       </c>
       <c r="F155" t="n">
         <v>2019</v>
@@ -6676,13 +6676,13 @@
         <v>26</v>
       </c>
       <c r="C156" t="n">
-        <v>168.545234938229</v>
+        <v>168.894804443749</v>
       </c>
       <c r="D156" t="n">
-        <v>154.424036351296</v>
+        <v>154.293896576985</v>
       </c>
       <c r="E156" t="n">
-        <v>184.126052999072</v>
+        <v>183.283837528374</v>
       </c>
       <c r="F156" t="n">
         <v>2019</v>
@@ -6714,13 +6714,13 @@
         <v>27</v>
       </c>
       <c r="C157" t="n">
-        <v>53.8690280963903</v>
+        <v>54.5676708776288</v>
       </c>
       <c r="D157" t="n">
-        <v>47.6752652564463</v>
+        <v>47.9002966263432</v>
       </c>
       <c r="E157" t="n">
-        <v>60.8736071888385</v>
+        <v>61.759123972948</v>
       </c>
       <c r="F157" t="n">
         <v>2019</v>
@@ -6752,13 +6752,13 @@
         <v>28</v>
       </c>
       <c r="C158" t="n">
-        <v>109.426833154139</v>
+        <v>109.171469245832</v>
       </c>
       <c r="D158" t="n">
-        <v>99.3948711780825</v>
+        <v>98.8976245505577</v>
       </c>
       <c r="E158" t="n">
-        <v>121.501174267362</v>
+        <v>120.101844280376</v>
       </c>
       <c r="F158" t="n">
         <v>2019</v>
@@ -6790,13 +6790,13 @@
         <v>29</v>
       </c>
       <c r="C159" t="n">
-        <v>64.8922012988557</v>
+        <v>64.6412053302775</v>
       </c>
       <c r="D159" t="n">
-        <v>57.0115317927668</v>
+        <v>56.9218737635405</v>
       </c>
       <c r="E159" t="n">
-        <v>73.5679920245759</v>
+        <v>73.2904364965091</v>
       </c>
       <c r="F159" t="n">
         <v>2019</v>
@@ -6828,13 +6828,13 @@
         <v>30</v>
       </c>
       <c r="C160" t="n">
-        <v>452.833218127368</v>
+        <v>452.244214831005</v>
       </c>
       <c r="D160" t="n">
-        <v>426.444056462847</v>
+        <v>424.769219861822</v>
       </c>
       <c r="E160" t="n">
-        <v>479.301269412286</v>
+        <v>478.496188905746</v>
       </c>
       <c r="F160" t="n">
         <v>2019</v>
@@ -6866,13 +6866,13 @@
         <v>31</v>
       </c>
       <c r="C161" t="n">
-        <v>195.034201981679</v>
+        <v>195.896788978119</v>
       </c>
       <c r="D161" t="n">
-        <v>180.011146308649</v>
+        <v>181.153566278589</v>
       </c>
       <c r="E161" t="n">
-        <v>212.244634111138</v>
+        <v>211.80029915902</v>
       </c>
       <c r="F161" t="n">
         <v>2019</v>
@@ -6904,13 +6904,13 @@
         <v>32</v>
       </c>
       <c r="C162" t="n">
-        <v>119.311673878052</v>
+        <v>119.254405829081</v>
       </c>
       <c r="D162" t="n">
-        <v>107.84414111895</v>
+        <v>106.605055155278</v>
       </c>
       <c r="E162" t="n">
-        <v>132.523555731085</v>
+        <v>132.346131709632</v>
       </c>
       <c r="F162" t="n">
         <v>2019</v>
@@ -6942,13 +6942,13 @@
         <v>33</v>
       </c>
       <c r="C163" t="n">
-        <v>296.658371124701</v>
+        <v>296.320665040706</v>
       </c>
       <c r="D163" t="n">
-        <v>276.992976126455</v>
+        <v>277.009629255044</v>
       </c>
       <c r="E163" t="n">
-        <v>317.34533386762</v>
+        <v>318.035238671636</v>
       </c>
       <c r="F163" t="n">
         <v>2019</v>
@@ -6980,13 +6980,13 @@
         <v>34</v>
       </c>
       <c r="C164" t="n">
-        <v>60.5848095836705</v>
+        <v>60.9465865642804</v>
       </c>
       <c r="D164" t="n">
-        <v>52.8576592326413</v>
+        <v>53.684221459986</v>
       </c>
       <c r="E164" t="n">
-        <v>68.9050356761378</v>
+        <v>68.3699547232211</v>
       </c>
       <c r="F164" t="n">
         <v>2019</v>
@@ -7018,13 +7018,13 @@
         <v>35</v>
       </c>
       <c r="C165" t="n">
-        <v>268.587044489524</v>
+        <v>268.959576453838</v>
       </c>
       <c r="D165" t="n">
-        <v>250.906867348284</v>
+        <v>250.679899678391</v>
       </c>
       <c r="E165" t="n">
-        <v>286.6458294775</v>
+        <v>289.072139297737</v>
       </c>
       <c r="F165" t="n">
         <v>2019</v>
@@ -7056,13 +7056,13 @@
         <v>36</v>
       </c>
       <c r="C166" t="n">
-        <v>62.1984117219804</v>
+        <v>61.9597227200178</v>
       </c>
       <c r="D166" t="n">
-        <v>54.193141475225</v>
+        <v>54.2275113915967</v>
       </c>
       <c r="E166" t="n">
-        <v>69.9197984895753</v>
+        <v>69.9346333895449</v>
       </c>
       <c r="F166" t="n">
         <v>2019</v>
@@ -7094,13 +7094,13 @@
         <v>37</v>
       </c>
       <c r="C167" t="n">
-        <v>453.768475784188</v>
+        <v>454.624006759496</v>
       </c>
       <c r="D167" t="n">
-        <v>429.429383299287</v>
+        <v>426.84822164184</v>
       </c>
       <c r="E167" t="n">
-        <v>480.126833690715</v>
+        <v>482.831004599329</v>
       </c>
       <c r="F167" t="n">
         <v>2019</v>
@@ -7132,13 +7132,13 @@
         <v>38</v>
       </c>
       <c r="C168" t="n">
-        <v>235.222712307326</v>
+        <v>235.188888893455</v>
       </c>
       <c r="D168" t="n">
-        <v>217.121312723103</v>
+        <v>218.273531055901</v>
       </c>
       <c r="E168" t="n">
-        <v>254.344559297339</v>
+        <v>254.500869445966</v>
       </c>
       <c r="F168" t="n">
         <v>2019</v>
@@ -7170,13 +7170,13 @@
         <v>39</v>
       </c>
       <c r="C169" t="n">
-        <v>273.189041151714</v>
+        <v>272.686741300385</v>
       </c>
       <c r="D169" t="n">
-        <v>254.703178458565</v>
+        <v>253.487783962619</v>
       </c>
       <c r="E169" t="n">
-        <v>292.795000884121</v>
+        <v>293.029868890028</v>
       </c>
       <c r="F169" t="n">
         <v>2019</v>
@@ -7208,13 +7208,13 @@
         <v>40</v>
       </c>
       <c r="C170" t="n">
-        <v>328.914154189086</v>
+        <v>330.094615710892</v>
       </c>
       <c r="D170" t="n">
-        <v>309.067467976915</v>
+        <v>309.093959647403</v>
       </c>
       <c r="E170" t="n">
-        <v>351.617901556353</v>
+        <v>354.374453812916</v>
       </c>
       <c r="F170" t="n">
         <v>2019</v>
@@ -7246,13 +7246,13 @@
         <v>41</v>
       </c>
       <c r="C171" t="n">
-        <v>43.5049955377204</v>
+        <v>43.265982328942</v>
       </c>
       <c r="D171" t="n">
-        <v>37.2807280223021</v>
+        <v>37.412055075671</v>
       </c>
       <c r="E171" t="n">
-        <v>49.712420234849</v>
+        <v>50.0058164225658</v>
       </c>
       <c r="F171" t="n">
         <v>2019</v>
@@ -7284,13 +7284,13 @@
         <v>42</v>
       </c>
       <c r="C172" t="n">
-        <v>21.7938029808311</v>
+        <v>21.5317566696578</v>
       </c>
       <c r="D172" t="n">
-        <v>18.5913480109879</v>
+        <v>18.1973707365062</v>
       </c>
       <c r="E172" t="n">
-        <v>25.8651878980187</v>
+        <v>25.2485985988392</v>
       </c>
       <c r="F172" t="n">
         <v>2019</v>
@@ -7322,13 +7322,13 @@
         <v>43</v>
       </c>
       <c r="C173" t="n">
-        <v>210.324640372182</v>
+        <v>210.570182755908</v>
       </c>
       <c r="D173" t="n">
-        <v>195.643373828433</v>
+        <v>193.709534235602</v>
       </c>
       <c r="E173" t="n">
-        <v>225.955173120372</v>
+        <v>227.774479943414</v>
       </c>
       <c r="F173" t="n">
         <v>2019</v>
@@ -7360,13 +7360,13 @@
         <v>44</v>
       </c>
       <c r="C174" t="n">
-        <v>58.744738448205</v>
+        <v>58.9559332401611</v>
       </c>
       <c r="D174" t="n">
-        <v>51.439865337629</v>
+        <v>51.6497236046045</v>
       </c>
       <c r="E174" t="n">
-        <v>67.2142837662369</v>
+        <v>67.7608714706766</v>
       </c>
       <c r="F174" t="n">
         <v>2019</v>
@@ -7398,13 +7398,13 @@
         <v>45</v>
       </c>
       <c r="C175" t="n">
-        <v>153.019603111328</v>
+        <v>153.254082414277</v>
       </c>
       <c r="D175" t="n">
-        <v>140.256749660147</v>
+        <v>140.438263592234</v>
       </c>
       <c r="E175" t="n">
-        <v>167.099986753277</v>
+        <v>167.729375233615</v>
       </c>
       <c r="F175" t="n">
         <v>2019</v>
@@ -7436,13 +7436,13 @@
         <v>46</v>
       </c>
       <c r="C176" t="n">
-        <v>113.724049787927</v>
+        <v>113.244592868971</v>
       </c>
       <c r="D176" t="n">
-        <v>101.755719980515</v>
+        <v>102.517191169609</v>
       </c>
       <c r="E176" t="n">
-        <v>124.671902405928</v>
+        <v>124.275563605739</v>
       </c>
       <c r="F176" t="n">
         <v>2019</v>
@@ -7474,13 +7474,13 @@
         <v>47</v>
       </c>
       <c r="C177" t="n">
-        <v>223.047103448266</v>
+        <v>223.230788780808</v>
       </c>
       <c r="D177" t="n">
-        <v>206.675704372924</v>
+        <v>204.601696120269</v>
       </c>
       <c r="E177" t="n">
-        <v>241.118028552353</v>
+        <v>242.110619932738</v>
       </c>
       <c r="F177" t="n">
         <v>2019</v>
@@ -7512,13 +7512,13 @@
         <v>48</v>
       </c>
       <c r="C178" t="n">
-        <v>476.046728555403</v>
+        <v>475.040057718974</v>
       </c>
       <c r="D178" t="n">
-        <v>448.335881679686</v>
+        <v>447.974758267889</v>
       </c>
       <c r="E178" t="n">
-        <v>505.147663391779</v>
+        <v>502.86760337304</v>
       </c>
       <c r="F178" t="n">
         <v>2019</v>
@@ -7550,13 +7550,13 @@
         <v>49</v>
       </c>
       <c r="C179" t="n">
-        <v>69.8866499729244</v>
+        <v>69.7198559172704</v>
       </c>
       <c r="D179" t="n">
-        <v>62.1674391117133</v>
+        <v>61.1651515531059</v>
       </c>
       <c r="E179" t="n">
-        <v>78.0590580454259</v>
+        <v>78.3651571907339</v>
       </c>
       <c r="F179" t="n">
         <v>2019</v>
@@ -7588,13 +7588,13 @@
         <v>50</v>
       </c>
       <c r="C180" t="n">
-        <v>205.088461482943</v>
+        <v>205.617234372717</v>
       </c>
       <c r="D180" t="n">
-        <v>189.593588310269</v>
+        <v>190.176433348793</v>
       </c>
       <c r="E180" t="n">
-        <v>221.486836106476</v>
+        <v>222.800623415591</v>
       </c>
       <c r="F180" t="n">
         <v>2019</v>
@@ -7626,13 +7626,13 @@
         <v>51</v>
       </c>
       <c r="C181" t="n">
-        <v>108.179121358608</v>
+        <v>108.509376152387</v>
       </c>
       <c r="D181" t="n">
-        <v>97.4474816866198</v>
+        <v>97.8497154389136</v>
       </c>
       <c r="E181" t="n">
-        <v>119.422046684083</v>
+        <v>120.054809765692</v>
       </c>
       <c r="F181" t="n">
         <v>2019</v>
@@ -7664,13 +7664,13 @@
         <v>52</v>
       </c>
       <c r="C182" t="n">
-        <v>28.5556791075817</v>
+        <v>28.198228573672</v>
       </c>
       <c r="D182" t="n">
-        <v>23.8194873310016</v>
+        <v>23.6297914763536</v>
       </c>
       <c r="E182" t="n">
-        <v>33.5110674350476</v>
+        <v>33.7152782491789</v>
       </c>
       <c r="F182" t="n">
         <v>2019</v>
@@ -7702,13 +7702,13 @@
         <v>53</v>
       </c>
       <c r="C183" t="n">
-        <v>22.8733237434926</v>
+        <v>22.8874934403283</v>
       </c>
       <c r="D183" t="n">
-        <v>18.3065634977175</v>
+        <v>18.4483166352964</v>
       </c>
       <c r="E183" t="n">
-        <v>28.1991853218616</v>
+        <v>28.1891050367874</v>
       </c>
       <c r="F183" t="n">
         <v>2019</v>
@@ -7740,13 +7740,13 @@
         <v>54</v>
       </c>
       <c r="C184" t="n">
-        <v>198.386281106237</v>
+        <v>200.453144659853</v>
       </c>
       <c r="D184" t="n">
-        <v>183.393294908564</v>
+        <v>183.9316985151</v>
       </c>
       <c r="E184" t="n">
-        <v>213.401557127341</v>
+        <v>216.681575697792</v>
       </c>
       <c r="F184" t="n">
         <v>2019</v>
@@ -7778,13 +7778,13 @@
         <v>55</v>
       </c>
       <c r="C185" t="n">
-        <v>290.191703298924</v>
+        <v>290.950195095165</v>
       </c>
       <c r="D185" t="n">
-        <v>271.358987141122</v>
+        <v>270.533426601423</v>
       </c>
       <c r="E185" t="n">
-        <v>311.02073465555</v>
+        <v>312.352095749062</v>
       </c>
       <c r="F185" t="n">
         <v>2019</v>
@@ -7816,13 +7816,13 @@
         <v>56</v>
       </c>
       <c r="C186" t="n">
-        <v>352.608660727054</v>
+        <v>353.400421918305</v>
       </c>
       <c r="D186" t="n">
-        <v>331.75895902166</v>
+        <v>331.096508772011</v>
       </c>
       <c r="E186" t="n">
-        <v>375.867400540366</v>
+        <v>378.884745953991</v>
       </c>
       <c r="F186" t="n">
         <v>2019</v>
@@ -7854,13 +7854,13 @@
         <v>57</v>
       </c>
       <c r="C187" t="n">
-        <v>424.553746099073</v>
+        <v>424.326970503408</v>
       </c>
       <c r="D187" t="n">
-        <v>400.709674917358</v>
+        <v>396.520368382402</v>
       </c>
       <c r="E187" t="n">
-        <v>450.250482132264</v>
+        <v>450.819724360761</v>
       </c>
       <c r="F187" t="n">
         <v>2019</v>
@@ -7892,13 +7892,13 @@
         <v>58</v>
       </c>
       <c r="C188" t="n">
-        <v>125.515989021274</v>
+        <v>124.42848818443</v>
       </c>
       <c r="D188" t="n">
-        <v>112.395393923254</v>
+        <v>112.218762642616</v>
       </c>
       <c r="E188" t="n">
-        <v>138.402390339575</v>
+        <v>137.842953395259</v>
       </c>
       <c r="F188" t="n">
         <v>2019</v>
@@ -7930,13 +7930,13 @@
         <v>59</v>
       </c>
       <c r="C189" t="n">
-        <v>414.883242329013</v>
+        <v>415.38849987203</v>
       </c>
       <c r="D189" t="n">
-        <v>391.26777376563</v>
+        <v>390.258439475937</v>
       </c>
       <c r="E189" t="n">
-        <v>441.403107030027</v>
+        <v>442.523447617286</v>
       </c>
       <c r="F189" t="n">
         <v>2019</v>
@@ -7968,13 +7968,13 @@
         <v>60</v>
       </c>
       <c r="C190" t="n">
-        <v>207.447602096396</v>
+        <v>207.424823538016</v>
       </c>
       <c r="D190" t="n">
-        <v>191.065934044255</v>
+        <v>191.851143714278</v>
       </c>
       <c r="E190" t="n">
-        <v>224.835599536985</v>
+        <v>223.601357649785</v>
       </c>
       <c r="F190" t="n">
         <v>2019</v>
@@ -8006,13 +8006,13 @@
         <v>61</v>
       </c>
       <c r="C191" t="n">
-        <v>126.883866435368</v>
+        <v>127.679099898744</v>
       </c>
       <c r="D191" t="n">
-        <v>114.774509519335</v>
+        <v>115.578661181404</v>
       </c>
       <c r="E191" t="n">
-        <v>138.959276992131</v>
+        <v>140.320958932529</v>
       </c>
       <c r="F191" t="n">
         <v>2019</v>
@@ -8044,13 +8044,13 @@
         <v>62</v>
       </c>
       <c r="C192" t="n">
-        <v>575.562490346887</v>
+        <v>577.314682889535</v>
       </c>
       <c r="D192" t="n">
-        <v>545.052960521022</v>
+        <v>546.120163797951</v>
       </c>
       <c r="E192" t="n">
-        <v>607.113245575995</v>
+        <v>610.884381959629</v>
       </c>
       <c r="F192" t="n">
         <v>2019</v>
@@ -8082,13 +8082,13 @@
         <v>63</v>
       </c>
       <c r="C193" t="n">
-        <v>44.5362560026238</v>
+        <v>44.3515521665623</v>
       </c>
       <c r="D193" t="n">
-        <v>38.5035283631678</v>
+        <v>38.555042652</v>
       </c>
       <c r="E193" t="n">
-        <v>50.59841338989</v>
+        <v>50.6675261074252</v>
       </c>
       <c r="F193" t="n">
         <v>2019</v>
@@ -8120,13 +8120,13 @@
         <v>64</v>
       </c>
       <c r="C194" t="n">
-        <v>162.75968776062</v>
+        <v>164.001285917637</v>
       </c>
       <c r="D194" t="n">
-        <v>149.778039357642</v>
+        <v>149.945679011577</v>
       </c>
       <c r="E194" t="n">
-        <v>178.614688291755</v>
+        <v>180.212896234341</v>
       </c>
       <c r="F194" t="n">
         <v>2019</v>
@@ -8158,13 +8158,13 @@
         <v>65</v>
       </c>
       <c r="C195" t="n">
-        <v>159.835155305942</v>
+        <v>159.847216982218</v>
       </c>
       <c r="D195" t="n">
-        <v>146.798179808255</v>
+        <v>146.241208083375</v>
       </c>
       <c r="E195" t="n">
-        <v>174.684295284985</v>
+        <v>174.167262331701</v>
       </c>
       <c r="F195" t="n">
         <v>2019</v>
@@ -8196,13 +8196,13 @@
         <v>66</v>
       </c>
       <c r="C196" t="n">
-        <v>55.8992488145582</v>
+        <v>55.5402801094678</v>
       </c>
       <c r="D196" t="n">
-        <v>49.2424663486084</v>
+        <v>48.7324414565242</v>
       </c>
       <c r="E196" t="n">
-        <v>63.193388572103</v>
+        <v>63.8625144023522</v>
       </c>
       <c r="F196" t="n">
         <v>2019</v>
@@ -8234,13 +8234,13 @@
         <v>67</v>
       </c>
       <c r="C197" t="n">
-        <v>95.7157466603786</v>
+        <v>96.1722977005474</v>
       </c>
       <c r="D197" t="n">
-        <v>85.9569852447814</v>
+        <v>86.7183425388929</v>
       </c>
       <c r="E197" t="n">
-        <v>105.947265446901</v>
+        <v>106.696661078088</v>
       </c>
       <c r="F197" t="n">
         <v>2019</v>
@@ -8272,13 +8272,13 @@
         <v>68</v>
       </c>
       <c r="C198" t="n">
-        <v>120.066817806647</v>
+        <v>119.384988634669</v>
       </c>
       <c r="D198" t="n">
-        <v>109.847162271047</v>
+        <v>107.941549163392</v>
       </c>
       <c r="E198" t="n">
-        <v>131.88713828311</v>
+        <v>131.970513202041</v>
       </c>
       <c r="F198" t="n">
         <v>2019</v>
@@ -8310,13 +8310,13 @@
         <v>69</v>
       </c>
       <c r="C199" t="n">
-        <v>480.404322603592</v>
+        <v>480.398011916848</v>
       </c>
       <c r="D199" t="n">
-        <v>453.32442189335</v>
+        <v>452.558083582927</v>
       </c>
       <c r="E199" t="n">
-        <v>508.520771046579</v>
+        <v>509.403786842236</v>
       </c>
       <c r="F199" t="n">
         <v>2019</v>
@@ -8348,13 +8348,13 @@
         <v>70</v>
       </c>
       <c r="C200" t="n">
-        <v>34.4050604219132</v>
+        <v>34.69144393698</v>
       </c>
       <c r="D200" t="n">
-        <v>29.7938688620921</v>
+        <v>29.4170573501561</v>
       </c>
       <c r="E200" t="n">
-        <v>40.1901521224096</v>
+        <v>40.2616566535938</v>
       </c>
       <c r="F200" t="n">
         <v>2019</v>
@@ -8386,13 +8386,13 @@
         <v>71</v>
       </c>
       <c r="C201" t="n">
-        <v>83.7014735131923</v>
+        <v>83.1756873902907</v>
       </c>
       <c r="D201" t="n">
-        <v>74.8206333981162</v>
+        <v>74.4353904562179</v>
       </c>
       <c r="E201" t="n">
-        <v>93.314350242173</v>
+        <v>93.3359670736167</v>
       </c>
       <c r="F201" t="n">
         <v>2019</v>
@@ -8424,13 +8424,13 @@
         <v>72</v>
       </c>
       <c r="C202" t="n">
-        <v>142.721926123083</v>
+        <v>142.709481501228</v>
       </c>
       <c r="D202" t="n">
-        <v>129.734419773656</v>
+        <v>128.913422692517</v>
       </c>
       <c r="E202" t="n">
-        <v>155.148869845027</v>
+        <v>157.240567519891</v>
       </c>
       <c r="F202" t="n">
         <v>2019</v>
@@ -8462,13 +8462,13 @@
         <v>73</v>
       </c>
       <c r="C203" t="n">
-        <v>348.975817559816</v>
+        <v>349.221424246572</v>
       </c>
       <c r="D203" t="n">
-        <v>325.987147788411</v>
+        <v>326.552204247407</v>
       </c>
       <c r="E203" t="n">
-        <v>372.423005910349</v>
+        <v>372.587720974644</v>
       </c>
       <c r="F203" t="n">
         <v>2019</v>
@@ -8500,13 +8500,13 @@
         <v>74</v>
       </c>
       <c r="C204" t="n">
-        <v>55.2072724855343</v>
+        <v>54.9936385600703</v>
       </c>
       <c r="D204" t="n">
-        <v>48.5611232151979</v>
+        <v>48.7028886964866</v>
       </c>
       <c r="E204" t="n">
-        <v>62.4867857153562</v>
+        <v>62.3498326861321</v>
       </c>
       <c r="F204" t="n">
         <v>2019</v>
@@ -8538,13 +8538,13 @@
         <v>75</v>
       </c>
       <c r="C205" t="n">
-        <v>51.7431325914516</v>
+        <v>51.0331754651086</v>
       </c>
       <c r="D205" t="n">
-        <v>44.7215179068162</v>
+        <v>44.1016568936938</v>
       </c>
       <c r="E205" t="n">
-        <v>59.8166943280174</v>
+        <v>59.2280261403999</v>
       </c>
       <c r="F205" t="n">
         <v>2019</v>
@@ -8576,13 +8576,13 @@
         <v>76</v>
       </c>
       <c r="C206" t="n">
-        <v>330.189305784823</v>
+        <v>331.973299564429</v>
       </c>
       <c r="D206" t="n">
-        <v>310.921041551753</v>
+        <v>309.993191088927</v>
       </c>
       <c r="E206" t="n">
-        <v>351.740834487102</v>
+        <v>354.247670174855</v>
       </c>
       <c r="F206" t="n">
         <v>2019</v>
@@ -8614,13 +8614,13 @@
         <v>77</v>
       </c>
       <c r="C207" t="n">
-        <v>112.402311436383</v>
+        <v>112.578903533321</v>
       </c>
       <c r="D207" t="n">
-        <v>101.079995180889</v>
+        <v>102.011893144599</v>
       </c>
       <c r="E207" t="n">
-        <v>124.426264643851</v>
+        <v>124.523545808332</v>
       </c>
       <c r="F207" t="n">
         <v>2019</v>
@@ -8652,13 +8652,13 @@
         <v>78</v>
       </c>
       <c r="C208" t="n">
-        <v>209.530373074991</v>
+        <v>209.187271401264</v>
       </c>
       <c r="D208" t="n">
-        <v>193.302953714176</v>
+        <v>192.72843142036</v>
       </c>
       <c r="E208" t="n">
-        <v>226.865008664401</v>
+        <v>226.957436221019</v>
       </c>
       <c r="F208" t="n">
         <v>2019</v>
@@ -8690,13 +8690,13 @@
         <v>79</v>
       </c>
       <c r="C209" t="n">
-        <v>166.014608054391</v>
+        <v>166.411509918517</v>
       </c>
       <c r="D209" t="n">
-        <v>152.522680103878</v>
+        <v>152.309390991825</v>
       </c>
       <c r="E209" t="n">
-        <v>181.699995283345</v>
+        <v>181.194066532333</v>
       </c>
       <c r="F209" t="n">
         <v>2019</v>
@@ -8728,13 +8728,13 @@
         <v>80</v>
       </c>
       <c r="C210" t="n">
-        <v>196.791671516705</v>
+        <v>197.29864878887</v>
       </c>
       <c r="D210" t="n">
-        <v>180.465967283578</v>
+        <v>181.426365748061</v>
       </c>
       <c r="E210" t="n">
-        <v>213.559093384803</v>
+        <v>212.964360114004</v>
       </c>
       <c r="F210" t="n">
         <v>2019</v>
@@ -8766,13 +8766,13 @@
         <v>81</v>
       </c>
       <c r="C211" t="n">
-        <v>204.42644627933</v>
+        <v>204.572463419596</v>
       </c>
       <c r="D211" t="n">
-        <v>188.731699506204</v>
+        <v>189.431169400876</v>
       </c>
       <c r="E211" t="n">
-        <v>220.159612298493</v>
+        <v>220.901839943505</v>
       </c>
       <c r="F211" t="n">
         <v>2019</v>
@@ -8804,13 +8804,13 @@
         <v>82</v>
       </c>
       <c r="C212" t="n">
-        <v>733.842322533918</v>
+        <v>732.773042785203</v>
       </c>
       <c r="D212" t="n">
-        <v>699.456776418089</v>
+        <v>695.858004491136</v>
       </c>
       <c r="E212" t="n">
-        <v>769.043164130775</v>
+        <v>770.576914723628</v>
       </c>
       <c r="F212" t="n">
         <v>2019</v>
@@ -8842,13 +8842,13 @@
         <v>83</v>
       </c>
       <c r="C213" t="n">
-        <v>102.893074202963</v>
+        <v>102.61693630848</v>
       </c>
       <c r="D213" t="n">
-        <v>92.9690961810302</v>
+        <v>93.5883987498955</v>
       </c>
       <c r="E213" t="n">
-        <v>113.265265635653</v>
+        <v>113.352776358076</v>
       </c>
       <c r="F213" t="n">
         <v>2019</v>
@@ -8880,13 +8880,13 @@
         <v>84</v>
       </c>
       <c r="C214" t="n">
-        <v>158.158273632633</v>
+        <v>158.287204958205</v>
       </c>
       <c r="D214" t="n">
-        <v>144.34618864259</v>
+        <v>144.336265018073</v>
       </c>
       <c r="E214" t="n">
-        <v>172.772805987684</v>
+        <v>173.04832193852</v>
       </c>
       <c r="F214" t="n">
         <v>2019</v>
@@ -8918,13 +8918,13 @@
         <v>85</v>
       </c>
       <c r="C215" t="n">
-        <v>164.336814508753</v>
+        <v>164.53861846871</v>
       </c>
       <c r="D215" t="n">
-        <v>151.158427137935</v>
+        <v>150.650712090098</v>
       </c>
       <c r="E215" t="n">
-        <v>178.328535254891</v>
+        <v>179.206443857094</v>
       </c>
       <c r="F215" t="n">
         <v>2019</v>
@@ -8956,13 +8956,13 @@
         <v>86</v>
       </c>
       <c r="C216" t="n">
-        <v>488.843599584121</v>
+        <v>487.982293858061</v>
       </c>
       <c r="D216" t="n">
-        <v>461.595999147877</v>
+        <v>458.969348274254</v>
       </c>
       <c r="E216" t="n">
-        <v>517.785945127367</v>
+        <v>519.625214965203</v>
       </c>
       <c r="F216" t="n">
         <v>2019</v>
@@ -8994,13 +8994,13 @@
         <v>87</v>
       </c>
       <c r="C217" t="n">
-        <v>47.5462190749038</v>
+        <v>46.7292776996054</v>
       </c>
       <c r="D217" t="n">
-        <v>41.6419854097209</v>
+        <v>40.7446032683011</v>
       </c>
       <c r="E217" t="n">
-        <v>54.2249364638207</v>
+        <v>52.8179659586466</v>
       </c>
       <c r="F217" t="n">
         <v>2019</v>
@@ -9032,13 +9032,13 @@
         <v>88</v>
       </c>
       <c r="C218" t="n">
-        <v>143.018149593252</v>
+        <v>142.800789054686</v>
       </c>
       <c r="D218" t="n">
-        <v>130.595112398311</v>
+        <v>129.499617578793</v>
       </c>
       <c r="E218" t="n">
-        <v>155.952058162443</v>
+        <v>157.51929637247</v>
       </c>
       <c r="F218" t="n">
         <v>2019</v>
@@ -9070,13 +9070,13 @@
         <v>89</v>
       </c>
       <c r="C219" t="n">
-        <v>194.536495112986</v>
+        <v>194.509489103042</v>
       </c>
       <c r="D219" t="n">
-        <v>178.998015023552</v>
+        <v>179.386333697888</v>
       </c>
       <c r="E219" t="n">
-        <v>210.820796185942</v>
+        <v>210.537669881883</v>
       </c>
       <c r="F219" t="n">
         <v>2019</v>
@@ -9108,13 +9108,13 @@
         <v>90</v>
       </c>
       <c r="C220" t="n">
-        <v>191.991452950483</v>
+        <v>191.314326458564</v>
       </c>
       <c r="D220" t="n">
-        <v>176.038544060574</v>
+        <v>177.088670448479</v>
       </c>
       <c r="E220" t="n">
-        <v>206.793940624494</v>
+        <v>207.957083430418</v>
       </c>
       <c r="F220" t="n">
         <v>2019</v>
@@ -9146,13 +9146,13 @@
         <v>91</v>
       </c>
       <c r="C221" t="n">
-        <v>585.535618186901</v>
+        <v>586.090152926247</v>
       </c>
       <c r="D221" t="n">
-        <v>553.352839140276</v>
+        <v>556.764075635384</v>
       </c>
       <c r="E221" t="n">
-        <v>615.901157922688</v>
+        <v>618.934116156335</v>
       </c>
       <c r="F221" t="n">
         <v>2019</v>
@@ -9184,13 +9184,13 @@
         <v>92</v>
       </c>
       <c r="C222" t="n">
-        <v>237.776224457552</v>
+        <v>237.335818986832</v>
       </c>
       <c r="D222" t="n">
-        <v>219.998279228925</v>
+        <v>219.371738056492</v>
       </c>
       <c r="E222" t="n">
-        <v>255.895231874951</v>
+        <v>257.449135156264</v>
       </c>
       <c r="F222" t="n">
         <v>2019</v>
@@ -9222,13 +9222,13 @@
         <v>93</v>
       </c>
       <c r="C223" t="n">
-        <v>65.849326879473</v>
+        <v>65.6045939115721</v>
       </c>
       <c r="D223" t="n">
-        <v>58.7379975161388</v>
+        <v>58.2140208052427</v>
       </c>
       <c r="E223" t="n">
-        <v>74.2718697787134</v>
+        <v>73.6095019167777</v>
       </c>
       <c r="F223" t="n">
         <v>2019</v>
@@ -9260,13 +9260,13 @@
         <v>94</v>
       </c>
       <c r="C224" t="n">
-        <v>9.17041872247975</v>
+        <v>8.92492254941773</v>
       </c>
       <c r="D224" t="n">
-        <v>7.02207685532465</v>
+        <v>7.07835389970358</v>
       </c>
       <c r="E224" t="n">
-        <v>11.5493206706259</v>
+        <v>11.2270576159964</v>
       </c>
       <c r="F224" t="n">
         <v>2019</v>
@@ -9298,13 +9298,13 @@
         <v>95</v>
       </c>
       <c r="C225" t="n">
-        <v>101.930572089145</v>
+        <v>101.914136457293</v>
       </c>
       <c r="D225" t="n">
-        <v>91.1554826515376</v>
+        <v>92.0406124264696</v>
       </c>
       <c r="E225" t="n">
-        <v>112.230743806718</v>
+        <v>112.813548009762</v>
       </c>
       <c r="F225" t="n">
         <v>2019</v>
@@ -9336,13 +9336,13 @@
         <v>96</v>
       </c>
       <c r="C226" t="n">
-        <v>228.688648896747</v>
+        <v>229.317270147528</v>
       </c>
       <c r="D226" t="n">
-        <v>212.454604805546</v>
+        <v>212.42344149195</v>
       </c>
       <c r="E226" t="n">
-        <v>248.118163211969</v>
+        <v>247.652184131709</v>
       </c>
       <c r="F226" t="n">
         <v>2019</v>
@@ -9374,13 +9374,13 @@
         <v>97</v>
       </c>
       <c r="C227" t="n">
-        <v>230.372430280213</v>
+        <v>230.749183582556</v>
       </c>
       <c r="D227" t="n">
-        <v>214.174576789607</v>
+        <v>213.328278526119</v>
       </c>
       <c r="E227" t="n">
-        <v>248.460349482217</v>
+        <v>249.534332328213</v>
       </c>
       <c r="F227" t="n">
         <v>2019</v>
@@ -9412,13 +9412,13 @@
         <v>98</v>
       </c>
       <c r="C228" t="n">
-        <v>176.218971791366</v>
+        <v>176.50957616846</v>
       </c>
       <c r="D228" t="n">
-        <v>160.772297673096</v>
+        <v>162.854857321002</v>
       </c>
       <c r="E228" t="n">
-        <v>192.077045394155</v>
+        <v>191.110883681318</v>
       </c>
       <c r="F228" t="n">
         <v>2019</v>
@@ -9450,13 +9450,13 @@
         <v>99</v>
       </c>
       <c r="C229" t="n">
-        <v>169.383784739712</v>
+        <v>169.206644841041</v>
       </c>
       <c r="D229" t="n">
-        <v>156.630940107839</v>
+        <v>155.305135912205</v>
       </c>
       <c r="E229" t="n">
-        <v>183.348870429294</v>
+        <v>183.388299327273</v>
       </c>
       <c r="F229" t="n">
         <v>2019</v>
@@ -9488,13 +9488,13 @@
         <v>100</v>
       </c>
       <c r="C230" t="n">
-        <v>60.7250057485779</v>
+        <v>60.4261163461219</v>
       </c>
       <c r="D230" t="n">
-        <v>53.7673754604476</v>
+        <v>53.035609314373</v>
       </c>
       <c r="E230" t="n">
-        <v>68.4154495521643</v>
+        <v>67.913365666368</v>
       </c>
       <c r="F230" t="n">
         <v>2019</v>
@@ -9526,13 +9526,13 @@
         <v>101</v>
       </c>
       <c r="C231" t="n">
-        <v>671.439718550572</v>
+        <v>671.214741325619</v>
       </c>
       <c r="D231" t="n">
-        <v>639.152617841226</v>
+        <v>634.247568888586</v>
       </c>
       <c r="E231" t="n">
-        <v>703.538673487629</v>
+        <v>709.854053446225</v>
       </c>
       <c r="F231" t="n">
         <v>2019</v>
@@ -9564,13 +9564,13 @@
         <v>102</v>
       </c>
       <c r="C232" t="n">
-        <v>380.697410382597</v>
+        <v>380.592715423817</v>
       </c>
       <c r="D232" t="n">
-        <v>357.170736083224</v>
+        <v>357.068968584527</v>
       </c>
       <c r="E232" t="n">
-        <v>405.652553543818</v>
+        <v>406.735124847877</v>
       </c>
       <c r="F232" t="n">
         <v>2019</v>
@@ -9602,13 +9602,13 @@
         <v>103</v>
       </c>
       <c r="C233" t="n">
-        <v>144.681586951142</v>
+        <v>144.637787159384</v>
       </c>
       <c r="D233" t="n">
-        <v>131.529054664733</v>
+        <v>132.372245714837</v>
       </c>
       <c r="E233" t="n">
-        <v>157.092473220248</v>
+        <v>158.347242054261</v>
       </c>
       <c r="F233" t="n">
         <v>2019</v>
@@ -9640,13 +9640,13 @@
         <v>104</v>
       </c>
       <c r="C234" t="n">
-        <v>205.384159843448</v>
+        <v>205.91380772141</v>
       </c>
       <c r="D234" t="n">
-        <v>189.513271533951</v>
+        <v>190.653520489623</v>
       </c>
       <c r="E234" t="n">
-        <v>221.32384217364</v>
+        <v>222.34829386544</v>
       </c>
       <c r="F234" t="n">
         <v>2019</v>
@@ -9678,13 +9678,13 @@
         <v>105</v>
       </c>
       <c r="C235" t="n">
-        <v>1659.27906283111</v>
+        <v>1660.23897516946</v>
       </c>
       <c r="D235" t="n">
-        <v>1593.95909666455</v>
+        <v>1589.40420208259</v>
       </c>
       <c r="E235" t="n">
-        <v>1730.08989771198</v>
+        <v>1733.01629926952</v>
       </c>
       <c r="F235" t="n">
         <v>2019</v>
@@ -9716,13 +9716,13 @@
         <v>106</v>
       </c>
       <c r="C236" t="n">
-        <v>171.988268807444</v>
+        <v>172.226685793041</v>
       </c>
       <c r="D236" t="n">
-        <v>157.818909499771</v>
+        <v>157.117726180369</v>
       </c>
       <c r="E236" t="n">
-        <v>187.991051048203</v>
+        <v>189.553364747976</v>
       </c>
       <c r="F236" t="n">
         <v>2019</v>
@@ -9754,13 +9754,13 @@
         <v>107</v>
       </c>
       <c r="C237" t="n">
-        <v>181.273175137528</v>
+        <v>180.933670435596</v>
       </c>
       <c r="D237" t="n">
-        <v>167.658341714519</v>
+        <v>166.874954021496</v>
       </c>
       <c r="E237" t="n">
-        <v>196.144640254105</v>
+        <v>197.145006370116</v>
       </c>
       <c r="F237" t="n">
         <v>2019</v>
@@ -9792,13 +9792,13 @@
         <v>108</v>
       </c>
       <c r="C238" t="n">
-        <v>83.7914666592486</v>
+        <v>84.3844627638884</v>
       </c>
       <c r="D238" t="n">
-        <v>75.3878466219028</v>
+        <v>75.3114125081683</v>
       </c>
       <c r="E238" t="n">
-        <v>93.3453359960832</v>
+        <v>93.9582502789497</v>
       </c>
       <c r="F238" t="n">
         <v>2019</v>
@@ -9830,13 +9830,13 @@
         <v>109</v>
       </c>
       <c r="C239" t="n">
-        <v>254.431850998969</v>
+        <v>255.865954470726</v>
       </c>
       <c r="D239" t="n">
-        <v>236.786299541608</v>
+        <v>237.201615675105</v>
       </c>
       <c r="E239" t="n">
-        <v>275.831774213693</v>
+        <v>276.24761915565</v>
       </c>
       <c r="F239" t="n">
         <v>2019</v>
@@ -9868,13 +9868,13 @@
         <v>110</v>
       </c>
       <c r="C240" t="n">
-        <v>311.231886065811</v>
+        <v>311.469866205801</v>
       </c>
       <c r="D240" t="n">
-        <v>291.208399571084</v>
+        <v>288.989930523601</v>
       </c>
       <c r="E240" t="n">
-        <v>333.148607637024</v>
+        <v>332.881371877914</v>
       </c>
       <c r="F240" t="n">
         <v>2019</v>
@@ -9906,13 +9906,13 @@
         <v>111</v>
       </c>
       <c r="C241" t="n">
-        <v>68.8485527700412</v>
+        <v>68.9743734334169</v>
       </c>
       <c r="D241" t="n">
-        <v>60.7197017512578</v>
+        <v>60.8711594588451</v>
       </c>
       <c r="E241" t="n">
-        <v>77.4854627407099</v>
+        <v>77.5420194874566</v>
       </c>
       <c r="F241" t="n">
         <v>2019</v>
@@ -9944,13 +9944,13 @@
         <v>112</v>
       </c>
       <c r="C242" t="n">
-        <v>154.889670067568</v>
+        <v>154.877817794964</v>
       </c>
       <c r="D242" t="n">
-        <v>140.979725942363</v>
+        <v>141.728505524167</v>
       </c>
       <c r="E242" t="n">
-        <v>168.555633497163</v>
+        <v>169.745443904347</v>
       </c>
       <c r="F242" t="n">
         <v>2019</v>
@@ -9982,13 +9982,13 @@
         <v>113</v>
       </c>
       <c r="C243" t="n">
-        <v>195.096445190945</v>
+        <v>195.136070994424</v>
       </c>
       <c r="D243" t="n">
-        <v>180.812486689668</v>
+        <v>178.290841629588</v>
       </c>
       <c r="E243" t="n">
-        <v>211.236655505347</v>
+        <v>212.688103040685</v>
       </c>
       <c r="F243" t="n">
         <v>2019</v>
@@ -10020,13 +10020,13 @@
         <v>114</v>
       </c>
       <c r="C244" t="n">
-        <v>353.815735293251</v>
+        <v>354.5437603103</v>
       </c>
       <c r="D244" t="n">
-        <v>332.49349464742</v>
+        <v>329.770055626821</v>
       </c>
       <c r="E244" t="n">
-        <v>376.617970580179</v>
+        <v>379.665725441436</v>
       </c>
       <c r="F244" t="n">
         <v>2019</v>
@@ -10058,13 +10058,13 @@
         <v>115</v>
       </c>
       <c r="C245" t="n">
-        <v>186.804211698586</v>
+        <v>186.357131746228</v>
       </c>
       <c r="D245" t="n">
-        <v>172.790011442494</v>
+        <v>170.571508779013</v>
       </c>
       <c r="E245" t="n">
-        <v>203.268985076865</v>
+        <v>202.776309392208</v>
       </c>
       <c r="F245" t="n">
         <v>2019</v>
@@ -10096,13 +10096,13 @@
         <v>116</v>
       </c>
       <c r="C246" t="n">
-        <v>59.9086199827353</v>
+        <v>59.6596375349893</v>
       </c>
       <c r="D246" t="n">
-        <v>52.3366362669269</v>
+        <v>52.5095658368442</v>
       </c>
       <c r="E246" t="n">
-        <v>67.6595907405369</v>
+        <v>67.7135902096379</v>
       </c>
       <c r="F246" t="n">
         <v>2019</v>
@@ -10134,13 +10134,13 @@
         <v>117</v>
       </c>
       <c r="C247" t="n">
-        <v>85.1092120293207</v>
+        <v>84.7847678717626</v>
       </c>
       <c r="D247" t="n">
-        <v>75.5738610650461</v>
+        <v>75.5659934365277</v>
       </c>
       <c r="E247" t="n">
-        <v>95.6866618310194</v>
+        <v>95.4677316806174</v>
       </c>
       <c r="F247" t="n">
         <v>2019</v>
@@ -10172,13 +10172,13 @@
         <v>118</v>
       </c>
       <c r="C248" t="n">
-        <v>258.733728498965</v>
+        <v>258.721400023832</v>
       </c>
       <c r="D248" t="n">
-        <v>239.749246688393</v>
+        <v>241.416583555505</v>
       </c>
       <c r="E248" t="n">
-        <v>278.47991844019</v>
+        <v>280.701731905598</v>
       </c>
       <c r="F248" t="n">
         <v>2019</v>
@@ -10210,13 +10210,13 @@
         <v>119</v>
       </c>
       <c r="C249" t="n">
-        <v>43.4547129489226</v>
+        <v>42.9556803761059</v>
       </c>
       <c r="D249" t="n">
-        <v>38.3526039698496</v>
+        <v>37.3094364414834</v>
       </c>
       <c r="E249" t="n">
-        <v>48.8555098301913</v>
+        <v>49.2126026715934</v>
       </c>
       <c r="F249" t="n">
         <v>2019</v>
@@ -10248,13 +10248,13 @@
         <v>120</v>
       </c>
       <c r="C250" t="n">
-        <v>165.251286546048</v>
+        <v>165.809781226263</v>
       </c>
       <c r="D250" t="n">
-        <v>150.815552903879</v>
+        <v>152.779392150823</v>
       </c>
       <c r="E250" t="n">
-        <v>178.902757649991</v>
+        <v>180.261761001407</v>
       </c>
       <c r="F250" t="n">
         <v>2019</v>
@@ -10286,13 +10286,13 @@
         <v>122</v>
       </c>
       <c r="C251" t="n">
-        <v>337.077160360412</v>
+        <v>336.624808060307</v>
       </c>
       <c r="D251" t="n">
-        <v>317.104126244731</v>
+        <v>314.79646667387</v>
       </c>
       <c r="E251" t="n">
-        <v>358.98778173972</v>
+        <v>360.855049810818</v>
       </c>
       <c r="F251" t="n">
         <v>2019</v>
@@ -10324,13 +10324,13 @@
         <v>123</v>
       </c>
       <c r="C252" t="n">
-        <v>708.432007010246</v>
+        <v>710.69935384663</v>
       </c>
       <c r="D252" t="n">
-        <v>674.93385438452</v>
+        <v>674.323367472939</v>
       </c>
       <c r="E252" t="n">
-        <v>745.012954592989</v>
+        <v>749.539140540032</v>
       </c>
       <c r="F252" t="n">
         <v>2019</v>
@@ -10362,13 +10362,13 @@
         <v>124</v>
       </c>
       <c r="C253" t="n">
-        <v>769.041519513529</v>
+        <v>771.942356855779</v>
       </c>
       <c r="D253" t="n">
-        <v>732.746936917293</v>
+        <v>732.298255086348</v>
       </c>
       <c r="E253" t="n">
-        <v>807.292870961126</v>
+        <v>812.652266407815</v>
       </c>
       <c r="F253" t="n">
         <v>2019</v>
@@ -10400,13 +10400,13 @@
         <v>125</v>
       </c>
       <c r="C254" t="n">
-        <v>1865.68191152391</v>
+        <v>1865.40152706088</v>
       </c>
       <c r="D254" t="n">
-        <v>1794.03557386536</v>
+        <v>1790.21542161502</v>
       </c>
       <c r="E254" t="n">
-        <v>1942.27489427153</v>
+        <v>1955.49865105163</v>
       </c>
       <c r="F254" t="n">
         <v>2019</v>
@@ -10438,13 +10438,13 @@
         <v>126</v>
       </c>
       <c r="C255" t="n">
-        <v>357.663716856127</v>
+        <v>356.773110851131</v>
       </c>
       <c r="D255" t="n">
-        <v>335.002959620323</v>
+        <v>333.071494049579</v>
       </c>
       <c r="E255" t="n">
-        <v>382.930405826428</v>
+        <v>379.705559052328</v>
       </c>
       <c r="F255" t="n">
         <v>2019</v>
@@ -10476,13 +10476,13 @@
         <v>127</v>
       </c>
       <c r="C256" t="n">
-        <v>246.071202440951</v>
+        <v>246.074248390585</v>
       </c>
       <c r="D256" t="n">
-        <v>228.629009072768</v>
+        <v>227.190499427754</v>
       </c>
       <c r="E256" t="n">
-        <v>264.566264571474</v>
+        <v>264.016151029182</v>
       </c>
       <c r="F256" t="n">
         <v>2019</v>
@@ -10514,13 +10514,13 @@
         <v>128</v>
       </c>
       <c r="C257" t="n">
-        <v>272.164077429069</v>
+        <v>271.352545577877</v>
       </c>
       <c r="D257" t="n">
-        <v>252.904050168251</v>
+        <v>252.254619390805</v>
       </c>
       <c r="E257" t="n">
-        <v>291.320052731377</v>
+        <v>291.802310791401</v>
       </c>
       <c r="F257" t="n">
         <v>2019</v>
@@ -10552,13 +10552,13 @@
         <v>129</v>
       </c>
       <c r="C258" t="n">
-        <v>145.963327586519</v>
+        <v>146.29376661137</v>
       </c>
       <c r="D258" t="n">
-        <v>133.58920924979</v>
+        <v>133.684216499446</v>
       </c>
       <c r="E258" t="n">
-        <v>158.783273298759</v>
+        <v>158.725736183883</v>
       </c>
       <c r="F258" t="n">
         <v>2019</v>
@@ -10590,13 +10590,13 @@
         <v>130</v>
       </c>
       <c r="C259" t="n">
-        <v>133.538664026083</v>
+        <v>133.292886576167</v>
       </c>
       <c r="D259" t="n">
-        <v>121.953850793215</v>
+        <v>121.261060557248</v>
       </c>
       <c r="E259" t="n">
-        <v>146.081482007717</v>
+        <v>147.426813900537</v>
       </c>
       <c r="F259" t="n">
         <v>2019</v>
@@ -10628,13 +10628,13 @@
         <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>39.5951720411191</v>
+        <v>39.3295932653365</v>
       </c>
       <c r="D260" t="n">
-        <v>33.2898225161707</v>
+        <v>33.4035019865232</v>
       </c>
       <c r="E260" t="n">
-        <v>46.1218422349621</v>
+        <v>46.3070256292578</v>
       </c>
       <c r="F260" t="n">
         <v>2020</v>
@@ -10666,13 +10666,13 @@
         <v>2</v>
       </c>
       <c r="C261" t="n">
-        <v>97.1483696262124</v>
+        <v>97.560886942349</v>
       </c>
       <c r="D261" t="n">
-        <v>87.1691667135303</v>
+        <v>87.5059102526115</v>
       </c>
       <c r="E261" t="n">
-        <v>106.885192624219</v>
+        <v>108.674737561087</v>
       </c>
       <c r="F261" t="n">
         <v>2020</v>
@@ -10704,13 +10704,13 @@
         <v>3</v>
       </c>
       <c r="C262" t="n">
-        <v>112.078182391403</v>
+        <v>112.424460452906</v>
       </c>
       <c r="D262" t="n">
-        <v>102.184835089726</v>
+        <v>102.049391365181</v>
       </c>
       <c r="E262" t="n">
-        <v>122.98211974851</v>
+        <v>123.930529046501</v>
       </c>
       <c r="F262" t="n">
         <v>2020</v>
@@ -10742,13 +10742,13 @@
         <v>4</v>
       </c>
       <c r="C263" t="n">
-        <v>1520.33786429286</v>
+        <v>1519.37658655848</v>
       </c>
       <c r="D263" t="n">
-        <v>1466.23645348392</v>
+        <v>1460.61761603614</v>
       </c>
       <c r="E263" t="n">
-        <v>1572.47596048012</v>
+        <v>1586.26504479247</v>
       </c>
       <c r="F263" t="n">
         <v>2020</v>
@@ -10780,13 +10780,13 @@
         <v>5</v>
       </c>
       <c r="C264" t="n">
-        <v>256.03166368879</v>
+        <v>257.68933491915</v>
       </c>
       <c r="D264" t="n">
-        <v>239.304960782253</v>
+        <v>240.001369084854</v>
       </c>
       <c r="E264" t="n">
-        <v>273.826268028856</v>
+        <v>277.574676377716</v>
       </c>
       <c r="F264" t="n">
         <v>2020</v>
@@ -10818,13 +10818,13 @@
         <v>6</v>
       </c>
       <c r="C265" t="n">
-        <v>911.825209179731</v>
+        <v>911.248171666487</v>
       </c>
       <c r="D265" t="n">
-        <v>876.430227398015</v>
+        <v>869.458517531566</v>
       </c>
       <c r="E265" t="n">
-        <v>949.575402752085</v>
+        <v>953.851824447912</v>
       </c>
       <c r="F265" t="n">
         <v>2020</v>
@@ -10856,13 +10856,13 @@
         <v>7</v>
       </c>
       <c r="C266" t="n">
-        <v>491.213017859193</v>
+        <v>491.969610129974</v>
       </c>
       <c r="D266" t="n">
-        <v>468.052671863698</v>
+        <v>465.121898852593</v>
       </c>
       <c r="E266" t="n">
-        <v>518.630423149043</v>
+        <v>519.434434145503</v>
       </c>
       <c r="F266" t="n">
         <v>2020</v>
@@ -10894,13 +10894,13 @@
         <v>8</v>
       </c>
       <c r="C267" t="n">
-        <v>77.6647448633092</v>
+        <v>78.0014356323962</v>
       </c>
       <c r="D267" t="n">
-        <v>70.0159566213421</v>
+        <v>69.9238637971416</v>
       </c>
       <c r="E267" t="n">
-        <v>85.8346563136261</v>
+        <v>86.7541123676944</v>
       </c>
       <c r="F267" t="n">
         <v>2020</v>
@@ -10932,13 +10932,13 @@
         <v>9</v>
       </c>
       <c r="C268" t="n">
-        <v>143.759636901487</v>
+        <v>143.207528837562</v>
       </c>
       <c r="D268" t="n">
-        <v>131.126508118693</v>
+        <v>130.540332524407</v>
       </c>
       <c r="E268" t="n">
-        <v>156.847612168205</v>
+        <v>156.998270553959</v>
       </c>
       <c r="F268" t="n">
         <v>2020</v>
@@ -10970,13 +10970,13 @@
         <v>10</v>
       </c>
       <c r="C269" t="n">
-        <v>113.742067130524</v>
+        <v>113.009619166559</v>
       </c>
       <c r="D269" t="n">
-        <v>102.81151982844</v>
+        <v>102.469197273639</v>
       </c>
       <c r="E269" t="n">
-        <v>124.382192181592</v>
+        <v>125.316619697096</v>
       </c>
       <c r="F269" t="n">
         <v>2020</v>
@@ -11008,13 +11008,13 @@
         <v>11</v>
       </c>
       <c r="C270" t="n">
-        <v>201.967493385544</v>
+        <v>201.033999986673</v>
       </c>
       <c r="D270" t="n">
-        <v>187.167999586836</v>
+        <v>186.267818786951</v>
       </c>
       <c r="E270" t="n">
-        <v>217.745366552662</v>
+        <v>217.863204340477</v>
       </c>
       <c r="F270" t="n">
         <v>2020</v>
@@ -11046,13 +11046,13 @@
         <v>12</v>
       </c>
       <c r="C271" t="n">
-        <v>242.5782991482</v>
+        <v>243.114710933449</v>
       </c>
       <c r="D271" t="n">
-        <v>226.875599373091</v>
+        <v>225.973429579637</v>
       </c>
       <c r="E271" t="n">
-        <v>260.794546644866</v>
+        <v>260.134413217965</v>
       </c>
       <c r="F271" t="n">
         <v>2020</v>
@@ -11084,13 +11084,13 @@
         <v>13</v>
       </c>
       <c r="C272" t="n">
-        <v>95.4658659942122</v>
+        <v>95.3831957865357</v>
       </c>
       <c r="D272" t="n">
-        <v>85.3783550027554</v>
+        <v>85.4899178053934</v>
       </c>
       <c r="E272" t="n">
-        <v>105.351824422125</v>
+        <v>105.822519190611</v>
       </c>
       <c r="F272" t="n">
         <v>2020</v>
@@ -11122,13 +11122,13 @@
         <v>14</v>
       </c>
       <c r="C273" t="n">
-        <v>27.1165059869175</v>
+        <v>26.9156089604001</v>
       </c>
       <c r="D273" t="n">
-        <v>23.2910334004247</v>
+        <v>23.0238078689282</v>
       </c>
       <c r="E273" t="n">
-        <v>31.6346347847248</v>
+        <v>31.5009550521975</v>
       </c>
       <c r="F273" t="n">
         <v>2020</v>
@@ -11160,13 +11160,13 @@
         <v>15</v>
       </c>
       <c r="C274" t="n">
-        <v>184.399507994298</v>
+        <v>183.181096238088</v>
       </c>
       <c r="D274" t="n">
-        <v>171.430386938937</v>
+        <v>168.697641788187</v>
       </c>
       <c r="E274" t="n">
-        <v>198.347847634699</v>
+        <v>197.885830958479</v>
       </c>
       <c r="F274" t="n">
         <v>2020</v>
@@ -11198,13 +11198,13 @@
         <v>16</v>
       </c>
       <c r="C275" t="n">
-        <v>184.998459936932</v>
+        <v>185.798679933537</v>
       </c>
       <c r="D275" t="n">
-        <v>171.927402158908</v>
+        <v>171.738203185982</v>
       </c>
       <c r="E275" t="n">
-        <v>200.964323006749</v>
+        <v>202.350388466273</v>
       </c>
       <c r="F275" t="n">
         <v>2020</v>
@@ -11236,13 +11236,13 @@
         <v>17</v>
       </c>
       <c r="C276" t="n">
-        <v>170.373655421407</v>
+        <v>169.362727029025</v>
       </c>
       <c r="D276" t="n">
-        <v>155.16439649967</v>
+        <v>155.131612593369</v>
       </c>
       <c r="E276" t="n">
-        <v>184.365252942831</v>
+        <v>186.020574051928</v>
       </c>
       <c r="F276" t="n">
         <v>2020</v>
@@ -11274,13 +11274,13 @@
         <v>18</v>
       </c>
       <c r="C277" t="n">
-        <v>42.9445089964371</v>
+        <v>42.8084769630109</v>
       </c>
       <c r="D277" t="n">
-        <v>37.2174779377782</v>
+        <v>37.2407889238146</v>
       </c>
       <c r="E277" t="n">
-        <v>49.3799567876648</v>
+        <v>49.1887230791921</v>
       </c>
       <c r="F277" t="n">
         <v>2020</v>
@@ -11312,13 +11312,13 @@
         <v>19</v>
       </c>
       <c r="C278" t="n">
-        <v>277.530170477067</v>
+        <v>277.038725486383</v>
       </c>
       <c r="D278" t="n">
-        <v>259.137898661912</v>
+        <v>256.815940538268</v>
       </c>
       <c r="E278" t="n">
-        <v>295.804055713809</v>
+        <v>295.452374347832</v>
       </c>
       <c r="F278" t="n">
         <v>2020</v>
@@ -11350,13 +11350,13 @@
         <v>20</v>
       </c>
       <c r="C279" t="n">
-        <v>132.359753004123</v>
+        <v>132.769863332329</v>
       </c>
       <c r="D279" t="n">
-        <v>119.991397239981</v>
+        <v>121.619079101344</v>
       </c>
       <c r="E279" t="n">
-        <v>144.500624770827</v>
+        <v>145.169920995651</v>
       </c>
       <c r="F279" t="n">
         <v>2020</v>
@@ -11388,13 +11388,13 @@
         <v>21</v>
       </c>
       <c r="C280" t="n">
-        <v>142.57675671343</v>
+        <v>142.987482311115</v>
       </c>
       <c r="D280" t="n">
-        <v>130.96332194091</v>
+        <v>130.110807385302</v>
       </c>
       <c r="E280" t="n">
-        <v>154.543750962065</v>
+        <v>156.677797149164</v>
       </c>
       <c r="F280" t="n">
         <v>2020</v>
@@ -11426,13 +11426,13 @@
         <v>22</v>
       </c>
       <c r="C281" t="n">
-        <v>425.544140813611</v>
+        <v>426.082674181965</v>
       </c>
       <c r="D281" t="n">
-        <v>401.289377346246</v>
+        <v>400.598865918908</v>
       </c>
       <c r="E281" t="n">
-        <v>449.856903350372</v>
+        <v>452.679849083897</v>
       </c>
       <c r="F281" t="n">
         <v>2020</v>
@@ -11464,13 +11464,13 @@
         <v>23</v>
       </c>
       <c r="C282" t="n">
-        <v>259.894508627264</v>
+        <v>260.693985911971</v>
       </c>
       <c r="D282" t="n">
-        <v>243.312015861885</v>
+        <v>241.158286254878</v>
       </c>
       <c r="E282" t="n">
-        <v>278.959607166892</v>
+        <v>280.548242066713</v>
       </c>
       <c r="F282" t="n">
         <v>2020</v>
@@ -11502,13 +11502,13 @@
         <v>24</v>
       </c>
       <c r="C283" t="n">
-        <v>230.045638311229</v>
+        <v>230.734603817</v>
       </c>
       <c r="D283" t="n">
-        <v>213.800327200689</v>
+        <v>214.825888705052</v>
       </c>
       <c r="E283" t="n">
-        <v>246.577139751292</v>
+        <v>248.666166243028</v>
       </c>
       <c r="F283" t="n">
         <v>2020</v>
@@ -11540,13 +11540,13 @@
         <v>25</v>
       </c>
       <c r="C284" t="n">
-        <v>267.590554740547</v>
+        <v>268.483156242331</v>
       </c>
       <c r="D284" t="n">
-        <v>248.96335843348</v>
+        <v>249.870031592284</v>
       </c>
       <c r="E284" t="n">
-        <v>284.437164448798</v>
+        <v>288.782154351803</v>
       </c>
       <c r="F284" t="n">
         <v>2020</v>
@@ -11578,13 +11578,13 @@
         <v>26</v>
       </c>
       <c r="C285" t="n">
-        <v>164.149875297962</v>
+        <v>164.957224652262</v>
       </c>
       <c r="D285" t="n">
-        <v>151.146053675263</v>
+        <v>150.600105967347</v>
       </c>
       <c r="E285" t="n">
-        <v>177.335165332349</v>
+        <v>177.75527807926</v>
       </c>
       <c r="F285" t="n">
         <v>2020</v>
@@ -11616,13 +11616,13 @@
         <v>27</v>
       </c>
       <c r="C286" t="n">
-        <v>56.9756804805854</v>
+        <v>57.6900059351493</v>
       </c>
       <c r="D286" t="n">
-        <v>50.4109924893337</v>
+        <v>50.3330131270133</v>
       </c>
       <c r="E286" t="n">
-        <v>64.4035119597308</v>
+        <v>65.0353859710193</v>
       </c>
       <c r="F286" t="n">
         <v>2020</v>
@@ -11654,13 +11654,13 @@
         <v>28</v>
       </c>
       <c r="C287" t="n">
-        <v>109.204755353556</v>
+        <v>108.769758127371</v>
       </c>
       <c r="D287" t="n">
-        <v>98.9522700325953</v>
+        <v>98.4519559538114</v>
       </c>
       <c r="E287" t="n">
-        <v>119.69263813151</v>
+        <v>120.049425995171</v>
       </c>
       <c r="F287" t="n">
         <v>2020</v>
@@ -11692,13 +11692,13 @@
         <v>29</v>
       </c>
       <c r="C288" t="n">
-        <v>63.6699842347889</v>
+        <v>63.8203122626478</v>
       </c>
       <c r="D288" t="n">
-        <v>56.2029050640447</v>
+        <v>56.1783428410219</v>
       </c>
       <c r="E288" t="n">
-        <v>71.535985484345</v>
+        <v>72.3036185768275</v>
       </c>
       <c r="F288" t="n">
         <v>2020</v>
@@ -11730,13 +11730,13 @@
         <v>30</v>
       </c>
       <c r="C289" t="n">
-        <v>466.278924620623</v>
+        <v>465.642224903435</v>
       </c>
       <c r="D289" t="n">
-        <v>441.856136989017</v>
+        <v>440.941211048763</v>
       </c>
       <c r="E289" t="n">
-        <v>491.473617719157</v>
+        <v>492.493117651019</v>
       </c>
       <c r="F289" t="n">
         <v>2020</v>
@@ -11768,13 +11768,13 @@
         <v>31</v>
       </c>
       <c r="C290" t="n">
-        <v>210.893615002033</v>
+        <v>211.1876540285</v>
       </c>
       <c r="D290" t="n">
-        <v>195.71160721022</v>
+        <v>196.491416138228</v>
       </c>
       <c r="E290" t="n">
-        <v>228.416631003503</v>
+        <v>227.376731751052</v>
       </c>
       <c r="F290" t="n">
         <v>2020</v>
@@ -11806,13 +11806,13 @@
         <v>32</v>
       </c>
       <c r="C291" t="n">
-        <v>124.309144509696</v>
+        <v>124.840562036381</v>
       </c>
       <c r="D291" t="n">
-        <v>113.666695066766</v>
+        <v>112.027067771719</v>
       </c>
       <c r="E291" t="n">
-        <v>136.788525326336</v>
+        <v>138.111243504443</v>
       </c>
       <c r="F291" t="n">
         <v>2020</v>
@@ -11844,13 +11844,13 @@
         <v>33</v>
       </c>
       <c r="C292" t="n">
-        <v>299.146178278466</v>
+        <v>299.33964689039</v>
       </c>
       <c r="D292" t="n">
-        <v>281.237782085453</v>
+        <v>280.034122579894</v>
       </c>
       <c r="E292" t="n">
-        <v>320.089856891411</v>
+        <v>318.966756373049</v>
       </c>
       <c r="F292" t="n">
         <v>2020</v>
@@ -11882,13 +11882,13 @@
         <v>34</v>
       </c>
       <c r="C293" t="n">
-        <v>60.4491489299826</v>
+        <v>60.8096951782357</v>
       </c>
       <c r="D293" t="n">
-        <v>53.4582299228729</v>
+        <v>53.7545234660357</v>
       </c>
       <c r="E293" t="n">
-        <v>68.5545897296724</v>
+        <v>68.4311731865392</v>
       </c>
       <c r="F293" t="n">
         <v>2020</v>
@@ -11920,13 +11920,13 @@
         <v>35</v>
       </c>
       <c r="C294" t="n">
-        <v>269.373079279557</v>
+        <v>268.686780413918</v>
       </c>
       <c r="D294" t="n">
-        <v>250.923141933177</v>
+        <v>250.545648683311</v>
       </c>
       <c r="E294" t="n">
-        <v>286.786617001463</v>
+        <v>286.670842784602</v>
       </c>
       <c r="F294" t="n">
         <v>2020</v>
@@ -11958,13 +11958,13 @@
         <v>36</v>
       </c>
       <c r="C295" t="n">
-        <v>62.0314731326486</v>
+        <v>61.8443278913513</v>
       </c>
       <c r="D295" t="n">
-        <v>54.4450947320389</v>
+        <v>54.093804584719</v>
       </c>
       <c r="E295" t="n">
-        <v>69.5304023963296</v>
+        <v>69.6491338654739</v>
       </c>
       <c r="F295" t="n">
         <v>2020</v>
@@ -11996,13 +11996,13 @@
         <v>37</v>
       </c>
       <c r="C296" t="n">
-        <v>461.605931449123</v>
+        <v>461.768740134156</v>
       </c>
       <c r="D296" t="n">
-        <v>436.70177923246</v>
+        <v>433.944207988373</v>
       </c>
       <c r="E296" t="n">
-        <v>486.742417146042</v>
+        <v>488.226743989935</v>
       </c>
       <c r="F296" t="n">
         <v>2020</v>
@@ -12034,13 +12034,13 @@
         <v>38</v>
       </c>
       <c r="C297" t="n">
-        <v>243.556613853055</v>
+        <v>243.332970673492</v>
       </c>
       <c r="D297" t="n">
-        <v>226.950162837662</v>
+        <v>225.827514409533</v>
       </c>
       <c r="E297" t="n">
-        <v>260.500866176435</v>
+        <v>262.288000066945</v>
       </c>
       <c r="F297" t="n">
         <v>2020</v>
@@ -12072,13 +12072,13 @@
         <v>39</v>
       </c>
       <c r="C298" t="n">
-        <v>288.723901851961</v>
+        <v>288.560419412434</v>
       </c>
       <c r="D298" t="n">
-        <v>269.443094100811</v>
+        <v>268.112938431675</v>
       </c>
       <c r="E298" t="n">
-        <v>309.540945256125</v>
+        <v>309.008529423355</v>
       </c>
       <c r="F298" t="n">
         <v>2020</v>
@@ -12110,13 +12110,13 @@
         <v>40</v>
       </c>
       <c r="C299" t="n">
-        <v>332.888433426632</v>
+        <v>333.440585406231</v>
       </c>
       <c r="D299" t="n">
-        <v>313.567346038935</v>
+        <v>312.589366101032</v>
       </c>
       <c r="E299" t="n">
-        <v>354.394618153654</v>
+        <v>356.658393747044</v>
       </c>
       <c r="F299" t="n">
         <v>2020</v>
@@ -12148,13 +12148,13 @@
         <v>41</v>
       </c>
       <c r="C300" t="n">
-        <v>41.7514055281839</v>
+        <v>41.5645954879582</v>
       </c>
       <c r="D300" t="n">
-        <v>36.3767923954854</v>
+        <v>35.826830869287</v>
       </c>
       <c r="E300" t="n">
-        <v>48.0360000357605</v>
+        <v>48.0094699061123</v>
       </c>
       <c r="F300" t="n">
         <v>2020</v>
@@ -12186,13 +12186,13 @@
         <v>42</v>
       </c>
       <c r="C301" t="n">
-        <v>20.9447054430765</v>
+        <v>20.5491309108876</v>
       </c>
       <c r="D301" t="n">
-        <v>17.761430400283</v>
+        <v>17.2532876935198</v>
       </c>
       <c r="E301" t="n">
-        <v>24.310057957753</v>
+        <v>24.2885908318024</v>
       </c>
       <c r="F301" t="n">
         <v>2020</v>
@@ -12224,13 +12224,13 @@
         <v>43</v>
       </c>
       <c r="C302" t="n">
-        <v>214.828158271736</v>
+        <v>214.033146612342</v>
       </c>
       <c r="D302" t="n">
-        <v>198.618062528878</v>
+        <v>198.193184556086</v>
       </c>
       <c r="E302" t="n">
-        <v>229.43871163766</v>
+        <v>231.126410609856</v>
       </c>
       <c r="F302" t="n">
         <v>2020</v>
@@ -12262,13 +12262,13 @@
         <v>44</v>
       </c>
       <c r="C303" t="n">
-        <v>58.8895196877845</v>
+        <v>59.3377893994593</v>
       </c>
       <c r="D303" t="n">
-        <v>51.4327489417018</v>
+        <v>52.0484230553925</v>
       </c>
       <c r="E303" t="n">
-        <v>67.3649686260461</v>
+        <v>68.0911568709902</v>
       </c>
       <c r="F303" t="n">
         <v>2020</v>
@@ -12300,13 +12300,13 @@
         <v>45</v>
       </c>
       <c r="C304" t="n">
-        <v>157.046509500956</v>
+        <v>156.531313404148</v>
       </c>
       <c r="D304" t="n">
-        <v>143.867307525914</v>
+        <v>143.659583050716</v>
       </c>
       <c r="E304" t="n">
-        <v>170.18602692317</v>
+        <v>170.548833170006</v>
       </c>
       <c r="F304" t="n">
         <v>2020</v>
@@ -12338,13 +12338,13 @@
         <v>46</v>
       </c>
       <c r="C305" t="n">
-        <v>111.80665793455</v>
+        <v>111.475259662317</v>
       </c>
       <c r="D305" t="n">
-        <v>101.47828453071</v>
+        <v>100.937972335463</v>
       </c>
       <c r="E305" t="n">
-        <v>122.363773435848</v>
+        <v>122.391075398312</v>
       </c>
       <c r="F305" t="n">
         <v>2020</v>
@@ -12376,13 +12376,13 @@
         <v>47</v>
       </c>
       <c r="C306" t="n">
-        <v>223.547665479395</v>
+        <v>223.679448468382</v>
       </c>
       <c r="D306" t="n">
-        <v>208.813308277073</v>
+        <v>205.65159246051</v>
       </c>
       <c r="E306" t="n">
-        <v>240.746398585315</v>
+        <v>242.598074611484</v>
       </c>
       <c r="F306" t="n">
         <v>2020</v>
@@ -12414,13 +12414,13 @@
         <v>48</v>
       </c>
       <c r="C307" t="n">
-        <v>474.766247976433</v>
+        <v>473.661930992439</v>
       </c>
       <c r="D307" t="n">
-        <v>448.212685353805</v>
+        <v>446.502248713149</v>
       </c>
       <c r="E307" t="n">
-        <v>501.734886048086</v>
+        <v>499.117913339283</v>
       </c>
       <c r="F307" t="n">
         <v>2020</v>
@@ -12452,13 +12452,13 @@
         <v>49</v>
       </c>
       <c r="C308" t="n">
-        <v>66.5960861681161</v>
+        <v>66.3711923614765</v>
       </c>
       <c r="D308" t="n">
-        <v>59.0367580505277</v>
+        <v>58.817113579196</v>
       </c>
       <c r="E308" t="n">
-        <v>74.553111402292</v>
+        <v>74.6576264856546</v>
       </c>
       <c r="F308" t="n">
         <v>2020</v>
@@ -12490,13 +12490,13 @@
         <v>50</v>
       </c>
       <c r="C309" t="n">
-        <v>218.026924693305</v>
+        <v>218.69966621884</v>
       </c>
       <c r="D309" t="n">
-        <v>204.117984311311</v>
+        <v>202.905816298289</v>
       </c>
       <c r="E309" t="n">
-        <v>234.69127713838</v>
+        <v>236.145480739227</v>
       </c>
       <c r="F309" t="n">
         <v>2020</v>
@@ -12528,13 +12528,13 @@
         <v>51</v>
       </c>
       <c r="C310" t="n">
-        <v>110.356633237223</v>
+        <v>110.856740612416</v>
       </c>
       <c r="D310" t="n">
-        <v>99.8651031671689</v>
+        <v>100.043346134519</v>
       </c>
       <c r="E310" t="n">
-        <v>122.206703662771</v>
+        <v>122.207840997446</v>
       </c>
       <c r="F310" t="n">
         <v>2020</v>
@@ -12566,13 +12566,13 @@
         <v>52</v>
       </c>
       <c r="C311" t="n">
-        <v>28.0745701081436</v>
+        <v>27.5656475387796</v>
       </c>
       <c r="D311" t="n">
-        <v>23.4013641633197</v>
+        <v>23.1806123572488</v>
       </c>
       <c r="E311" t="n">
-        <v>33.4282104293659</v>
+        <v>32.995438350807</v>
       </c>
       <c r="F311" t="n">
         <v>2020</v>
@@ -12604,13 +12604,13 @@
         <v>53</v>
       </c>
       <c r="C312" t="n">
-        <v>24.4720818879737</v>
+        <v>24.1332556493043</v>
       </c>
       <c r="D312" t="n">
-        <v>19.5133958524582</v>
+        <v>19.6289147068226</v>
       </c>
       <c r="E312" t="n">
-        <v>29.6207855021475</v>
+        <v>29.439086273017</v>
       </c>
       <c r="F312" t="n">
         <v>2020</v>
@@ -12642,13 +12642,13 @@
         <v>54</v>
       </c>
       <c r="C313" t="n">
-        <v>207.96431604747</v>
+        <v>209.831451398454</v>
       </c>
       <c r="D313" t="n">
-        <v>193.081760133052</v>
+        <v>193.1005129703</v>
       </c>
       <c r="E313" t="n">
-        <v>222.872806542345</v>
+        <v>226.306411639293</v>
       </c>
       <c r="F313" t="n">
         <v>2020</v>
@@ -12680,13 +12680,13 @@
         <v>55</v>
       </c>
       <c r="C314" t="n">
-        <v>292.684880441624</v>
+        <v>292.922446247388</v>
       </c>
       <c r="D314" t="n">
-        <v>272.906811338584</v>
+        <v>273.316848361407</v>
       </c>
       <c r="E314" t="n">
-        <v>312.661661387395</v>
+        <v>313.25613890341</v>
       </c>
       <c r="F314" t="n">
         <v>2020</v>
@@ -12718,13 +12718,13 @@
         <v>56</v>
       </c>
       <c r="C315" t="n">
-        <v>368.9968445172</v>
+        <v>369.463291271381</v>
       </c>
       <c r="D315" t="n">
-        <v>347.683084160809</v>
+        <v>346.432891655526</v>
       </c>
       <c r="E315" t="n">
-        <v>388.899204877311</v>
+        <v>393.763533963405</v>
       </c>
       <c r="F315" t="n">
         <v>2020</v>
@@ -12756,13 +12756,13 @@
         <v>57</v>
       </c>
       <c r="C316" t="n">
-        <v>436.420519602008</v>
+        <v>435.642675161187</v>
       </c>
       <c r="D316" t="n">
-        <v>412.135206756631</v>
+        <v>409.718835932807</v>
       </c>
       <c r="E316" t="n">
-        <v>460.208165033138</v>
+        <v>461.588503623752</v>
       </c>
       <c r="F316" t="n">
         <v>2020</v>
@@ -12794,13 +12794,13 @@
         <v>58</v>
       </c>
       <c r="C317" t="n">
-        <v>120.857272611176</v>
+        <v>120.109617507941</v>
       </c>
       <c r="D317" t="n">
-        <v>109.883936816573</v>
+        <v>108.275492888605</v>
       </c>
       <c r="E317" t="n">
-        <v>133.403495408064</v>
+        <v>132.643378609357</v>
       </c>
       <c r="F317" t="n">
         <v>2020</v>
@@ -12832,13 +12832,13 @@
         <v>59</v>
       </c>
       <c r="C318" t="n">
-        <v>408.8343531862</v>
+        <v>408.845577938852</v>
       </c>
       <c r="D318" t="n">
-        <v>385.281569178318</v>
+        <v>382.658309046728</v>
       </c>
       <c r="E318" t="n">
-        <v>431.662700055907</v>
+        <v>434.087583095383</v>
       </c>
       <c r="F318" t="n">
         <v>2020</v>
@@ -12870,13 +12870,13 @@
         <v>60</v>
       </c>
       <c r="C319" t="n">
-        <v>202.43981867704</v>
+        <v>201.582667285658</v>
       </c>
       <c r="D319" t="n">
-        <v>187.992271313825</v>
+        <v>186.377169213286</v>
       </c>
       <c r="E319" t="n">
-        <v>219.091026717834</v>
+        <v>218.204804695696</v>
       </c>
       <c r="F319" t="n">
         <v>2020</v>
@@ -12908,13 +12908,13 @@
         <v>61</v>
       </c>
       <c r="C320" t="n">
-        <v>126.402074379297</v>
+        <v>126.836649627366</v>
       </c>
       <c r="D320" t="n">
-        <v>115.073822518353</v>
+        <v>115.141991925943</v>
       </c>
       <c r="E320" t="n">
-        <v>137.851937979178</v>
+        <v>138.956752868522</v>
       </c>
       <c r="F320" t="n">
         <v>2020</v>
@@ -12946,13 +12946,13 @@
         <v>62</v>
       </c>
       <c r="C321" t="n">
-        <v>589.867934303129</v>
+        <v>590.830692296013</v>
       </c>
       <c r="D321" t="n">
-        <v>559.596209791753</v>
+        <v>559.526939084763</v>
       </c>
       <c r="E321" t="n">
-        <v>619.40481082005</v>
+        <v>622.740008318928</v>
       </c>
       <c r="F321" t="n">
         <v>2020</v>
@@ -12984,13 +12984,13 @@
         <v>63</v>
       </c>
       <c r="C322" t="n">
-        <v>46.8492554627919</v>
+        <v>46.5224723287062</v>
       </c>
       <c r="D322" t="n">
-        <v>41.1539188485809</v>
+        <v>40.6361919996843</v>
       </c>
       <c r="E322" t="n">
-        <v>53.2165448772311</v>
+        <v>53.1318007524661</v>
       </c>
       <c r="F322" t="n">
         <v>2020</v>
@@ -13022,13 +13022,13 @@
         <v>64</v>
       </c>
       <c r="C323" t="n">
-        <v>178.208476864281</v>
+        <v>178.799614045207</v>
       </c>
       <c r="D323" t="n">
-        <v>163.577268541967</v>
+        <v>164.42686570091</v>
       </c>
       <c r="E323" t="n">
-        <v>192.926256975604</v>
+        <v>195.37431678902</v>
       </c>
       <c r="F323" t="n">
         <v>2020</v>
@@ -13060,13 +13060,13 @@
         <v>65</v>
       </c>
       <c r="C324" t="n">
-        <v>163.786450231628</v>
+        <v>163.211053688999</v>
       </c>
       <c r="D324" t="n">
-        <v>150.345974398554</v>
+        <v>150.103786931037</v>
       </c>
       <c r="E324" t="n">
-        <v>177.635651552307</v>
+        <v>177.803779293727</v>
       </c>
       <c r="F324" t="n">
         <v>2020</v>
@@ -13098,13 +13098,13 @@
         <v>66</v>
       </c>
       <c r="C325" t="n">
-        <v>56.7533457150769</v>
+        <v>56.272476695849</v>
       </c>
       <c r="D325" t="n">
-        <v>50.1687447804221</v>
+        <v>49.3537670586782</v>
       </c>
       <c r="E325" t="n">
-        <v>63.548611839943</v>
+        <v>64.3182540725776</v>
       </c>
       <c r="F325" t="n">
         <v>2020</v>
@@ -13136,13 +13136,13 @@
         <v>67</v>
       </c>
       <c r="C326" t="n">
-        <v>95.0608467036553</v>
+        <v>95.5867628987339</v>
       </c>
       <c r="D326" t="n">
-        <v>85.9407833891295</v>
+        <v>86.1852317437066</v>
       </c>
       <c r="E326" t="n">
-        <v>105.03423861614</v>
+        <v>105.571811758363</v>
       </c>
       <c r="F326" t="n">
         <v>2020</v>
@@ -13174,13 +13174,13 @@
         <v>68</v>
       </c>
       <c r="C327" t="n">
-        <v>120.709798227038</v>
+        <v>120.232424287912</v>
       </c>
       <c r="D327" t="n">
-        <v>110.867713193062</v>
+        <v>108.706065665369</v>
       </c>
       <c r="E327" t="n">
-        <v>132.065439698376</v>
+        <v>132.25812203766</v>
       </c>
       <c r="F327" t="n">
         <v>2020</v>
@@ -13212,13 +13212,13 @@
         <v>69</v>
       </c>
       <c r="C328" t="n">
-        <v>494.090825855143</v>
+        <v>494.545740775349</v>
       </c>
       <c r="D328" t="n">
-        <v>468.828842328646</v>
+        <v>468.084868311842</v>
       </c>
       <c r="E328" t="n">
-        <v>520.15771250925</v>
+        <v>521.280968061682</v>
       </c>
       <c r="F328" t="n">
         <v>2020</v>
@@ -13250,13 +13250,13 @@
         <v>70</v>
       </c>
       <c r="C329" t="n">
-        <v>36.3219426101187</v>
+        <v>36.4724024182369</v>
       </c>
       <c r="D329" t="n">
-        <v>31.2189136432869</v>
+        <v>31.1340406844075</v>
       </c>
       <c r="E329" t="n">
-        <v>41.9281572653925</v>
+        <v>42.1609868412267</v>
       </c>
       <c r="F329" t="n">
         <v>2020</v>
@@ -13288,13 +13288,13 @@
         <v>71</v>
       </c>
       <c r="C330" t="n">
-        <v>87.246555263892</v>
+        <v>86.5416341882345</v>
       </c>
       <c r="D330" t="n">
-        <v>77.7856083597428</v>
+        <v>77.3268153025258</v>
       </c>
       <c r="E330" t="n">
-        <v>97.2481665068828</v>
+        <v>96.7849270993721</v>
       </c>
       <c r="F330" t="n">
         <v>2020</v>
@@ -13326,13 +13326,13 @@
         <v>72</v>
       </c>
       <c r="C331" t="n">
-        <v>143.45654020353</v>
+        <v>143.234257576578</v>
       </c>
       <c r="D331" t="n">
-        <v>130.519325830756</v>
+        <v>129.607953823468</v>
       </c>
       <c r="E331" t="n">
-        <v>156.700721757365</v>
+        <v>156.896980716069</v>
       </c>
       <c r="F331" t="n">
         <v>2020</v>
@@ -13364,13 +13364,13 @@
         <v>73</v>
       </c>
       <c r="C332" t="n">
-        <v>358.006137258343</v>
+        <v>357.460969675078</v>
       </c>
       <c r="D332" t="n">
-        <v>336.949018295788</v>
+        <v>335.94967532122</v>
       </c>
       <c r="E332" t="n">
-        <v>378.8098256669</v>
+        <v>380.639873450804</v>
       </c>
       <c r="F332" t="n">
         <v>2020</v>
@@ -13402,13 +13402,13 @@
         <v>74</v>
       </c>
       <c r="C333" t="n">
-        <v>57.4905027948809</v>
+        <v>57.1624278116073</v>
       </c>
       <c r="D333" t="n">
-        <v>50.9945974301948</v>
+        <v>50.7424666565555</v>
       </c>
       <c r="E333" t="n">
-        <v>65.2146670713179</v>
+        <v>64.7047936758508</v>
       </c>
       <c r="F333" t="n">
         <v>2020</v>
@@ -13440,13 +13440,13 @@
         <v>75</v>
       </c>
       <c r="C334" t="n">
-        <v>47.9653128661265</v>
+        <v>47.575505331188</v>
       </c>
       <c r="D334" t="n">
-        <v>41.3745121340395</v>
+        <v>41.0476966391315</v>
       </c>
       <c r="E334" t="n">
-        <v>55.32054260335</v>
+        <v>55.4701544095956</v>
       </c>
       <c r="F334" t="n">
         <v>2020</v>
@@ -13478,13 +13478,13 @@
         <v>76</v>
       </c>
       <c r="C335" t="n">
-        <v>337.819532704297</v>
+        <v>339.452976322473</v>
       </c>
       <c r="D335" t="n">
-        <v>318.387473474007</v>
+        <v>318.527030330981</v>
       </c>
       <c r="E335" t="n">
-        <v>358.05790321056</v>
+        <v>360.934354329132</v>
       </c>
       <c r="F335" t="n">
         <v>2020</v>
@@ -13516,13 +13516,13 @@
         <v>77</v>
       </c>
       <c r="C336" t="n">
-        <v>120.849503680958</v>
+        <v>121.154297296811</v>
       </c>
       <c r="D336" t="n">
-        <v>108.837838297898</v>
+        <v>109.97145773169</v>
       </c>
       <c r="E336" t="n">
-        <v>131.67840962878</v>
+        <v>132.849577866368</v>
       </c>
       <c r="F336" t="n">
         <v>2020</v>
@@ -13554,13 +13554,13 @@
         <v>78</v>
       </c>
       <c r="C337" t="n">
-        <v>216.637347972823</v>
+        <v>215.662537929819</v>
       </c>
       <c r="D337" t="n">
-        <v>200.318633794102</v>
+        <v>198.628602119703</v>
       </c>
       <c r="E337" t="n">
-        <v>233.537828043554</v>
+        <v>233.243079083228</v>
       </c>
       <c r="F337" t="n">
         <v>2020</v>
@@ -13592,13 +13592,13 @@
         <v>79</v>
       </c>
       <c r="C338" t="n">
-        <v>177.268936455848</v>
+        <v>177.114113797683</v>
       </c>
       <c r="D338" t="n">
-        <v>162.935166303452</v>
+        <v>163.013583569744</v>
       </c>
       <c r="E338" t="n">
-        <v>192.245877650075</v>
+        <v>192.356319947778</v>
       </c>
       <c r="F338" t="n">
         <v>2020</v>
@@ -13630,13 +13630,13 @@
         <v>80</v>
       </c>
       <c r="C339" t="n">
-        <v>204.319583279326</v>
+        <v>204.923828308218</v>
       </c>
       <c r="D339" t="n">
-        <v>188.962449916637</v>
+        <v>189.091298343708</v>
       </c>
       <c r="E339" t="n">
-        <v>221.254155368235</v>
+        <v>219.962032222897</v>
       </c>
       <c r="F339" t="n">
         <v>2020</v>
@@ -13668,13 +13668,13 @@
         <v>81</v>
       </c>
       <c r="C340" t="n">
-        <v>214.482952530828</v>
+        <v>214.199967904227</v>
       </c>
       <c r="D340" t="n">
-        <v>198.805394261228</v>
+        <v>199.346825810154</v>
       </c>
       <c r="E340" t="n">
-        <v>231.015499209794</v>
+        <v>230.681278016614</v>
       </c>
       <c r="F340" t="n">
         <v>2020</v>
@@ -13706,13 +13706,13 @@
         <v>82</v>
       </c>
       <c r="C341" t="n">
-        <v>725.52489334666</v>
+        <v>724.399198182122</v>
       </c>
       <c r="D341" t="n">
-        <v>692.78432326676</v>
+        <v>689.415853544422</v>
       </c>
       <c r="E341" t="n">
-        <v>756.879472010091</v>
+        <v>761.393997821097</v>
       </c>
       <c r="F341" t="n">
         <v>2020</v>
@@ -13744,13 +13744,13 @@
         <v>83</v>
       </c>
       <c r="C342" t="n">
-        <v>101.940790741724</v>
+        <v>101.421327392771</v>
       </c>
       <c r="D342" t="n">
-        <v>92.1799709584338</v>
+        <v>92.374837668396</v>
       </c>
       <c r="E342" t="n">
-        <v>112.122607998486</v>
+        <v>112.031072360213</v>
       </c>
       <c r="F342" t="n">
         <v>2020</v>
@@ -13782,13 +13782,13 @@
         <v>84</v>
       </c>
       <c r="C343" t="n">
-        <v>169.973545978156</v>
+        <v>170.157749679578</v>
       </c>
       <c r="D343" t="n">
-        <v>157.49989804656</v>
+        <v>155.695260031142</v>
       </c>
       <c r="E343" t="n">
-        <v>183.731049597138</v>
+        <v>185.178708621875</v>
       </c>
       <c r="F343" t="n">
         <v>2020</v>
@@ -13820,13 +13820,13 @@
         <v>85</v>
       </c>
       <c r="C344" t="n">
-        <v>167.217262387858</v>
+        <v>167.059440428625</v>
       </c>
       <c r="D344" t="n">
-        <v>154.326913866898</v>
+        <v>154.083462785415</v>
       </c>
       <c r="E344" t="n">
-        <v>180.365397604134</v>
+        <v>181.526447651227</v>
       </c>
       <c r="F344" t="n">
         <v>2020</v>
@@ -13858,13 +13858,13 @@
         <v>86</v>
       </c>
       <c r="C345" t="n">
-        <v>487.337716082445</v>
+        <v>484.740794407105</v>
       </c>
       <c r="D345" t="n">
-        <v>460.479396457944</v>
+        <v>457.18024750049</v>
       </c>
       <c r="E345" t="n">
-        <v>514.351223921545</v>
+        <v>513.793774707023</v>
       </c>
       <c r="F345" t="n">
         <v>2020</v>
@@ -13896,13 +13896,13 @@
         <v>87</v>
       </c>
       <c r="C346" t="n">
-        <v>49.8943010039582</v>
+        <v>49.0769515069686</v>
       </c>
       <c r="D346" t="n">
-        <v>43.8708391253895</v>
+        <v>42.7692788851317</v>
       </c>
       <c r="E346" t="n">
-        <v>56.3975708324102</v>
+        <v>55.3858858032812</v>
       </c>
       <c r="F346" t="n">
         <v>2020</v>
@@ -13934,13 +13934,13 @@
         <v>88</v>
       </c>
       <c r="C347" t="n">
-        <v>143.411146752776</v>
+        <v>143.382407459255</v>
       </c>
       <c r="D347" t="n">
-        <v>129.785961556406</v>
+        <v>130.454949924805</v>
       </c>
       <c r="E347" t="n">
-        <v>156.637886152686</v>
+        <v>156.769618727737</v>
       </c>
       <c r="F347" t="n">
         <v>2020</v>
@@ -13972,13 +13972,13 @@
         <v>89</v>
       </c>
       <c r="C348" t="n">
-        <v>193.007805820785</v>
+        <v>192.974791479054</v>
       </c>
       <c r="D348" t="n">
-        <v>177.373233423618</v>
+        <v>177.965800551151</v>
       </c>
       <c r="E348" t="n">
-        <v>208.576726841724</v>
+        <v>208.164400331645</v>
       </c>
       <c r="F348" t="n">
         <v>2020</v>
@@ -14010,13 +14010,13 @@
         <v>90</v>
       </c>
       <c r="C349" t="n">
-        <v>190.546115379541</v>
+        <v>190.091264705735</v>
       </c>
       <c r="D349" t="n">
-        <v>175.4950381931</v>
+        <v>176.101893699412</v>
       </c>
       <c r="E349" t="n">
-        <v>205.915002401523</v>
+        <v>206.773305605998</v>
       </c>
       <c r="F349" t="n">
         <v>2020</v>
@@ -14048,13 +14048,13 @@
         <v>91</v>
       </c>
       <c r="C350" t="n">
-        <v>605.64260335517</v>
+        <v>606.089631394432</v>
       </c>
       <c r="D350" t="n">
-        <v>575.537909181572</v>
+        <v>577.81525679912</v>
       </c>
       <c r="E350" t="n">
-        <v>633.659122342426</v>
+        <v>640.228300011651</v>
       </c>
       <c r="F350" t="n">
         <v>2020</v>
@@ -14086,13 +14086,13 @@
         <v>92</v>
       </c>
       <c r="C351" t="n">
-        <v>241.724798860396</v>
+        <v>240.736928490158</v>
       </c>
       <c r="D351" t="n">
-        <v>225.067717157533</v>
+        <v>223.545615746477</v>
       </c>
       <c r="E351" t="n">
-        <v>258.815151781686</v>
+        <v>260.520736828291</v>
       </c>
       <c r="F351" t="n">
         <v>2020</v>
@@ -14124,13 +14124,13 @@
         <v>93</v>
       </c>
       <c r="C352" t="n">
-        <v>65.8126570940558</v>
+        <v>65.4580469573986</v>
       </c>
       <c r="D352" t="n">
-        <v>58.8312049447652</v>
+        <v>58.1232670873863</v>
       </c>
       <c r="E352" t="n">
-        <v>73.0316806156738</v>
+        <v>73.584029617772</v>
       </c>
       <c r="F352" t="n">
         <v>2020</v>
@@ -14162,13 +14162,13 @@
         <v>94</v>
       </c>
       <c r="C353" t="n">
-        <v>8.99188682436334</v>
+        <v>8.80984091976562</v>
       </c>
       <c r="D353" t="n">
-        <v>6.99554023496104</v>
+        <v>7.00296089444929</v>
       </c>
       <c r="E353" t="n">
-        <v>11.5320260900744</v>
+        <v>11.0731530430278</v>
       </c>
       <c r="F353" t="n">
         <v>2020</v>
@@ -14200,13 +14200,13 @@
         <v>95</v>
       </c>
       <c r="C354" t="n">
-        <v>102.718422727156</v>
+        <v>102.204210989254</v>
       </c>
       <c r="D354" t="n">
-        <v>92.5957992843249</v>
+        <v>92.6190650130391</v>
       </c>
       <c r="E354" t="n">
-        <v>113.422773556304</v>
+        <v>113.36099000139</v>
       </c>
       <c r="F354" t="n">
         <v>2020</v>
@@ -14238,13 +14238,13 @@
         <v>96</v>
       </c>
       <c r="C355" t="n">
-        <v>228.99752936543</v>
+        <v>229.026488028642</v>
       </c>
       <c r="D355" t="n">
-        <v>212.978065089441</v>
+        <v>212.027980414659</v>
       </c>
       <c r="E355" t="n">
-        <v>247.294251624829</v>
+        <v>246.655875216881</v>
       </c>
       <c r="F355" t="n">
         <v>2020</v>
@@ -14276,13 +14276,13 @@
         <v>97</v>
       </c>
       <c r="C356" t="n">
-        <v>221.714950023627</v>
+        <v>221.701856845155</v>
       </c>
       <c r="D356" t="n">
-        <v>206.593047870282</v>
+        <v>205.031140032567</v>
       </c>
       <c r="E356" t="n">
-        <v>238.38636694453</v>
+        <v>239.40690258365</v>
       </c>
       <c r="F356" t="n">
         <v>2020</v>
@@ -14314,13 +14314,13 @@
         <v>98</v>
       </c>
       <c r="C357" t="n">
-        <v>174.747484992935</v>
+        <v>175.248687506033</v>
       </c>
       <c r="D357" t="n">
-        <v>162.063437273132</v>
+        <v>161.693373392016</v>
       </c>
       <c r="E357" t="n">
-        <v>189.53932341797</v>
+        <v>189.994871743409</v>
       </c>
       <c r="F357" t="n">
         <v>2020</v>
@@ -14352,13 +14352,13 @@
         <v>99</v>
       </c>
       <c r="C358" t="n">
-        <v>165.041738194367</v>
+        <v>164.766472723856</v>
       </c>
       <c r="D358" t="n">
-        <v>152.725088889669</v>
+        <v>151.439564652483</v>
       </c>
       <c r="E358" t="n">
-        <v>179.349885275323</v>
+        <v>178.686360197589</v>
       </c>
       <c r="F358" t="n">
         <v>2020</v>
@@ -14390,13 +14390,13 @@
         <v>100</v>
       </c>
       <c r="C359" t="n">
-        <v>64.2664355115797</v>
+        <v>64.0926004148594</v>
       </c>
       <c r="D359" t="n">
-        <v>57.5114126419081</v>
+        <v>56.4848581134578</v>
       </c>
       <c r="E359" t="n">
-        <v>71.8569445323789</v>
+        <v>71.9687013190799</v>
       </c>
       <c r="F359" t="n">
         <v>2020</v>
@@ -14428,13 +14428,13 @@
         <v>101</v>
       </c>
       <c r="C360" t="n">
-        <v>671.715989921037</v>
+        <v>670.280550362472</v>
       </c>
       <c r="D360" t="n">
-        <v>641.194440990401</v>
+        <v>637.252689600045</v>
       </c>
       <c r="E360" t="n">
-        <v>702.379692366953</v>
+        <v>707.034337067445</v>
       </c>
       <c r="F360" t="n">
         <v>2020</v>
@@ -14466,13 +14466,13 @@
         <v>102</v>
       </c>
       <c r="C361" t="n">
-        <v>396.765489991248</v>
+        <v>396.235859655714</v>
       </c>
       <c r="D361" t="n">
-        <v>375.769709245617</v>
+        <v>372.58709256798</v>
       </c>
       <c r="E361" t="n">
-        <v>421.06207338821</v>
+        <v>422.145976643213</v>
       </c>
       <c r="F361" t="n">
         <v>2020</v>
@@ -14504,13 +14504,13 @@
         <v>103</v>
       </c>
       <c r="C362" t="n">
-        <v>142.309336158221</v>
+        <v>141.982623557911</v>
       </c>
       <c r="D362" t="n">
-        <v>129.43053188749</v>
+        <v>129.618342994772</v>
       </c>
       <c r="E362" t="n">
-        <v>153.790076036667</v>
+        <v>155.005365200845</v>
       </c>
       <c r="F362" t="n">
         <v>2020</v>
@@ -14542,13 +14542,13 @@
         <v>104</v>
       </c>
       <c r="C363" t="n">
-        <v>213.172931303852</v>
+        <v>213.613767163624</v>
       </c>
       <c r="D363" t="n">
-        <v>199.525056522985</v>
+        <v>198.174603637269</v>
       </c>
       <c r="E363" t="n">
-        <v>230.240054587147</v>
+        <v>230.749010964623</v>
       </c>
       <c r="F363" t="n">
         <v>2020</v>
@@ -14580,13 +14580,13 @@
         <v>105</v>
       </c>
       <c r="C364" t="n">
-        <v>1695.7994887046</v>
+        <v>1695.04056639349</v>
       </c>
       <c r="D364" t="n">
-        <v>1641.37548785765</v>
+        <v>1627.90583049816</v>
       </c>
       <c r="E364" t="n">
-        <v>1750.80141889403</v>
+        <v>1760.49758570974</v>
       </c>
       <c r="F364" t="n">
         <v>2020</v>
@@ -14618,13 +14618,13 @@
         <v>106</v>
       </c>
       <c r="C365" t="n">
-        <v>172.201453406378</v>
+        <v>172.826079909454</v>
       </c>
       <c r="D365" t="n">
-        <v>157.380490256569</v>
+        <v>158.162028508219</v>
       </c>
       <c r="E365" t="n">
-        <v>187.440337629792</v>
+        <v>189.241573532852</v>
       </c>
       <c r="F365" t="n">
         <v>2020</v>
@@ -14656,13 +14656,13 @@
         <v>107</v>
       </c>
       <c r="C366" t="n">
-        <v>183.624787624184</v>
+        <v>183.038453248621</v>
       </c>
       <c r="D366" t="n">
-        <v>169.989150669061</v>
+        <v>168.918404244214</v>
       </c>
       <c r="E366" t="n">
-        <v>199.086277999007</v>
+        <v>198.81499687241</v>
       </c>
       <c r="F366" t="n">
         <v>2020</v>
@@ -14694,13 +14694,13 @@
         <v>108</v>
       </c>
       <c r="C367" t="n">
-        <v>82.4708390159967</v>
+        <v>82.7572230503684</v>
       </c>
       <c r="D367" t="n">
-        <v>74.2275726673528</v>
+        <v>73.9390705249228</v>
       </c>
       <c r="E367" t="n">
-        <v>91.6108778901529</v>
+        <v>92.3166727650689</v>
       </c>
       <c r="F367" t="n">
         <v>2020</v>
@@ -14732,13 +14732,13 @@
         <v>109</v>
       </c>
       <c r="C368" t="n">
-        <v>267.384383960214</v>
+        <v>267.234013361766</v>
       </c>
       <c r="D368" t="n">
-        <v>250.434720748811</v>
+        <v>249.55961057144</v>
       </c>
       <c r="E368" t="n">
-        <v>284.714990211422</v>
+        <v>287.525111373721</v>
       </c>
       <c r="F368" t="n">
         <v>2020</v>
@@ -14770,13 +14770,13 @@
         <v>110</v>
       </c>
       <c r="C369" t="n">
-        <v>309.811155242006</v>
+        <v>311.050510883014</v>
       </c>
       <c r="D369" t="n">
-        <v>291.588802930504</v>
+        <v>289.457597834494</v>
       </c>
       <c r="E369" t="n">
-        <v>331.15589023438</v>
+        <v>332.660819427852</v>
       </c>
       <c r="F369" t="n">
         <v>2020</v>
@@ -14808,13 +14808,13 @@
         <v>111</v>
       </c>
       <c r="C370" t="n">
-        <v>67.2251592453259</v>
+        <v>66.5926809848894</v>
       </c>
       <c r="D370" t="n">
-        <v>59.6936337000001</v>
+        <v>58.5991638110802</v>
       </c>
       <c r="E370" t="n">
-        <v>76.2593064253949</v>
+        <v>74.7815800762035</v>
       </c>
       <c r="F370" t="n">
         <v>2020</v>
@@ -14846,13 +14846,13 @@
         <v>112</v>
       </c>
       <c r="C371" t="n">
-        <v>163.454341463836</v>
+        <v>164.338010706002</v>
       </c>
       <c r="D371" t="n">
-        <v>151.294692156198</v>
+        <v>149.926808289001</v>
       </c>
       <c r="E371" t="n">
-        <v>178.978529896755</v>
+        <v>179.548724038661</v>
       </c>
       <c r="F371" t="n">
         <v>2020</v>
@@ -14884,13 +14884,13 @@
         <v>113</v>
       </c>
       <c r="C372" t="n">
-        <v>193.302124804369</v>
+        <v>193.24175080445</v>
       </c>
       <c r="D372" t="n">
-        <v>178.750173110441</v>
+        <v>176.958029012719</v>
       </c>
       <c r="E372" t="n">
-        <v>209.725296639488</v>
+        <v>210.135953558223</v>
       </c>
       <c r="F372" t="n">
         <v>2020</v>
@@ -14922,13 +14922,13 @@
         <v>114</v>
       </c>
       <c r="C373" t="n">
-        <v>353.287159334554</v>
+        <v>353.821570676177</v>
       </c>
       <c r="D373" t="n">
-        <v>332.557809540329</v>
+        <v>329.834508952499</v>
       </c>
       <c r="E373" t="n">
-        <v>376.08999416904</v>
+        <v>377.930917622618</v>
       </c>
       <c r="F373" t="n">
         <v>2020</v>
@@ -14960,13 +14960,13 @@
         <v>115</v>
       </c>
       <c r="C374" t="n">
-        <v>193.454836225552</v>
+        <v>192.909670826524</v>
       </c>
       <c r="D374" t="n">
-        <v>178.363377028281</v>
+        <v>177.717885258712</v>
       </c>
       <c r="E374" t="n">
-        <v>209.622843437462</v>
+        <v>208.430140884877</v>
       </c>
       <c r="F374" t="n">
         <v>2020</v>
@@ -14998,13 +14998,13 @@
         <v>116</v>
       </c>
       <c r="C375" t="n">
-        <v>63.4644078068741</v>
+        <v>63.1989894899605</v>
       </c>
       <c r="D375" t="n">
-        <v>55.9502077485701</v>
+        <v>55.8656355404878</v>
       </c>
       <c r="E375" t="n">
-        <v>71.7143218539911</v>
+        <v>71.6713572248491</v>
       </c>
       <c r="F375" t="n">
         <v>2020</v>
@@ -15036,13 +15036,13 @@
         <v>117</v>
       </c>
       <c r="C376" t="n">
-        <v>80.6059255815074</v>
+        <v>80.6827884929016</v>
       </c>
       <c r="D376" t="n">
-        <v>72.2000732993806</v>
+        <v>71.879213907907</v>
       </c>
       <c r="E376" t="n">
-        <v>89.3677073432133</v>
+        <v>91.2017832209655</v>
       </c>
       <c r="F376" t="n">
         <v>2020</v>
@@ -15074,13 +15074,13 @@
         <v>118</v>
       </c>
       <c r="C377" t="n">
-        <v>271.249578612529</v>
+        <v>271.045005856582</v>
       </c>
       <c r="D377" t="n">
-        <v>251.408207116389</v>
+        <v>253.447946375721</v>
       </c>
       <c r="E377" t="n">
-        <v>289.326813016645</v>
+        <v>292.024046782351</v>
       </c>
       <c r="F377" t="n">
         <v>2020</v>
@@ -15112,13 +15112,13 @@
         <v>119</v>
       </c>
       <c r="C378" t="n">
-        <v>41.788362905307</v>
+        <v>41.4055112753922</v>
       </c>
       <c r="D378" t="n">
-        <v>36.6689536328833</v>
+        <v>36.0954811805243</v>
       </c>
       <c r="E378" t="n">
-        <v>47.7803862829872</v>
+        <v>47.2405961264434</v>
       </c>
       <c r="F378" t="n">
         <v>2020</v>
@@ -15150,13 +15150,13 @@
         <v>120</v>
       </c>
       <c r="C379" t="n">
-        <v>173.739107328338</v>
+        <v>173.824873514347</v>
       </c>
       <c r="D379" t="n">
-        <v>160.78090271337</v>
+        <v>159.795374582348</v>
       </c>
       <c r="E379" t="n">
-        <v>187.68638618244</v>
+        <v>188.170766412711</v>
       </c>
       <c r="F379" t="n">
         <v>2020</v>
@@ -15188,13 +15188,13 @@
         <v>122</v>
       </c>
       <c r="C380" t="n">
-        <v>340.742455321274</v>
+        <v>341.274448695671</v>
       </c>
       <c r="D380" t="n">
-        <v>319.92426724372</v>
+        <v>319.109139710894</v>
       </c>
       <c r="E380" t="n">
-        <v>363.021429058107</v>
+        <v>366.041812516791</v>
       </c>
       <c r="F380" t="n">
         <v>2020</v>
@@ -15226,13 +15226,13 @@
         <v>123</v>
       </c>
       <c r="C381" t="n">
-        <v>740.212988171407</v>
+        <v>743.025854293418</v>
       </c>
       <c r="D381" t="n">
-        <v>710.148417201661</v>
+        <v>706.35304658405</v>
       </c>
       <c r="E381" t="n">
-        <v>774.201063746256</v>
+        <v>781.532278528941</v>
       </c>
       <c r="F381" t="n">
         <v>2020</v>
@@ -15264,13 +15264,13 @@
         <v>124</v>
       </c>
       <c r="C382" t="n">
-        <v>768.405872347121</v>
+        <v>769.822196370997</v>
       </c>
       <c r="D382" t="n">
-        <v>737.20950066193</v>
+        <v>733.32164447317</v>
       </c>
       <c r="E382" t="n">
-        <v>803.244675856365</v>
+        <v>809.117574356141</v>
       </c>
       <c r="F382" t="n">
         <v>2020</v>
@@ -15302,13 +15302,13 @@
         <v>125</v>
       </c>
       <c r="C383" t="n">
-        <v>1860.8931407571</v>
+        <v>1861.12968431223</v>
       </c>
       <c r="D383" t="n">
-        <v>1803.89863899898</v>
+        <v>1790.88446198422</v>
       </c>
       <c r="E383" t="n">
-        <v>1920.05291548448</v>
+        <v>1939.76668793376</v>
       </c>
       <c r="F383" t="n">
         <v>2020</v>
@@ -15340,13 +15340,13 @@
         <v>126</v>
       </c>
       <c r="C384" t="n">
-        <v>371.649619594694</v>
+        <v>369.88791044552</v>
       </c>
       <c r="D384" t="n">
-        <v>349.065838846852</v>
+        <v>345.765305929459</v>
       </c>
       <c r="E384" t="n">
-        <v>393.416003810537</v>
+        <v>392.603795870199</v>
       </c>
       <c r="F384" t="n">
         <v>2020</v>
@@ -15378,13 +15378,13 @@
         <v>127</v>
       </c>
       <c r="C385" t="n">
-        <v>249.827031516959</v>
+        <v>250.475191476827</v>
       </c>
       <c r="D385" t="n">
-        <v>232.929763690771</v>
+        <v>231.687557128585</v>
       </c>
       <c r="E385" t="n">
-        <v>269.6027736899</v>
+        <v>268.183889648257</v>
       </c>
       <c r="F385" t="n">
         <v>2020</v>
@@ -15416,13 +15416,13 @@
         <v>128</v>
       </c>
       <c r="C386" t="n">
-        <v>277.276397361453</v>
+        <v>276.890300411609</v>
       </c>
       <c r="D386" t="n">
-        <v>257.804692581913</v>
+        <v>258.836845542331</v>
       </c>
       <c r="E386" t="n">
-        <v>295.472647654279</v>
+        <v>297.129313470683</v>
       </c>
       <c r="F386" t="n">
         <v>2020</v>
@@ -15454,13 +15454,13 @@
         <v>129</v>
       </c>
       <c r="C387" t="n">
-        <v>141.362578325711</v>
+        <v>140.80691263839</v>
       </c>
       <c r="D387" t="n">
-        <v>129.705800623861</v>
+        <v>128.289387937148</v>
       </c>
       <c r="E387" t="n">
-        <v>154.474783050207</v>
+        <v>152.867976243712</v>
       </c>
       <c r="F387" t="n">
         <v>2020</v>
@@ -15492,13 +15492,13 @@
         <v>130</v>
       </c>
       <c r="C388" t="n">
-        <v>129.420267167827</v>
+        <v>129.123127024194</v>
       </c>
       <c r="D388" t="n">
-        <v>117.830891051425</v>
+        <v>116.974392132392</v>
       </c>
       <c r="E388" t="n">
-        <v>141.459386341728</v>
+        <v>142.157085887155</v>
       </c>
       <c r="F388" t="n">
         <v>2020</v>
